--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="281" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="188">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -597,7 +597,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -653,12 +653,6 @@
       <name val="FontAwesome"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="FontAwesome"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -789,20 +783,20 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -830,23 +824,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -854,15 +852,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -870,35 +860,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -981,8 +963,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E21" activeCellId="0" sqref="E21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5:F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1057,8 +1039,8 @@
       <c r="D4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="3" t="s">
-        <v>7</v>
+      <c r="E4" s="3" t="n">
+        <v>7.37</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -1170,7 +1152,7 @@
       <c r="B11" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C11" s="10" t="s">
+      <c r="C11" s="2" t="s">
         <v>21</v>
       </c>
       <c r="D11" s="1" t="s">
@@ -1248,20 +1230,20 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" s="11" customFormat="true" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="11" t="s">
+      <c r="B16" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
+      <c r="C16" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="D16" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="13" t="s">
+      <c r="D16" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E16" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1495,154 +1477,154 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F5:F6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>28</v>
       </c>
-      <c r="B1" s="15" t="s">
+      <c r="B1" s="11" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="s">
+      <c r="A2" s="10" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="s">
+      <c r="A3" s="10" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="s">
+      <c r="A4" s="10" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="s">
+      <c r="A5" s="10" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="s">
+      <c r="A6" s="10" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="14" t="s">
+      <c r="D6" s="10" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="s">
+      <c r="A7" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="s">
+      <c r="A8" s="10" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="s">
+      <c r="A9" s="10" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="s">
+      <c r="A11" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="15" t="s">
+      <c r="B12" s="11" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="15" t="s">
+      <c r="B13" s="11" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="15" t="s">
+      <c r="B14" s="11" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="11" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="15" t="s">
+      <c r="B16" s="11" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="15" t="s">
+      <c r="B17" s="11" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="15" t="s">
+      <c r="B18" s="11" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="s">
+      <c r="A21" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="16"/>
-      <c r="B22" s="17" t="s">
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="C22" s="16"/>
-      <c r="D22" s="16"/>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="16"/>
-      <c r="B23" s="17" t="s">
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="16"/>
-      <c r="D23" s="16"/>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="16"/>
-      <c r="B24" s="17" t="s">
+      <c r="A24" s="12"/>
+      <c r="B24" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="C24" s="16"/>
-      <c r="D24" s="16"/>
+      <c r="C24" s="12"/>
+      <c r="D24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="14" t="s">
+      <c r="A25" s="10" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="15" t="s">
+      <c r="B26" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="15" t="s">
+      <c r="B27" s="11" t="s">
         <v>53</v>
       </c>
-      <c r="G27" s="14" t="s">
+      <c r="G27" s="10" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="14" t="s">
+      <c r="A28" s="10" t="s">
         <v>55</v>
       </c>
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="10" t="s">
         <v>56</v>
       </c>
     </row>
@@ -1680,541 +1662,541 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F5:F6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="6.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="23.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="6.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="31.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14" t="s">
+      <c r="A1" s="10" t="s">
         <v>57</v>
       </c>
-      <c r="B1" s="14" t="s">
+      <c r="B1" s="10" t="s">
         <v>58</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>59</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>60</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>61</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>62</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>63</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="10" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="19" t="n">
+      <c r="C2" s="16" t="n">
         <v>79</v>
       </c>
-      <c r="D2" s="19" t="n">
+      <c r="D2" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="E2" s="15" t="s">
+      <c r="E2" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="F2" s="0" t="n">
+      <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="14" t="n">
+      <c r="G2" s="10" t="n">
         <v>173</v>
       </c>
-      <c r="I2" s="14" t="n">
+      <c r="I2" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="14" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="18" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="19" t="n">
+      <c r="C3" s="16" t="n">
         <v>64</v>
       </c>
-      <c r="D3" s="19" t="n">
+      <c r="D3" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="E3" s="15" t="s">
+      <c r="E3" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F3" s="0" t="n">
+      <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="14" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="18" t="s">
+      <c r="B4" s="15" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="19" t="n">
+      <c r="C4" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="19" t="n">
+      <c r="D4" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="E4" s="15" t="s">
+      <c r="E4" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="F4" s="0" t="n">
+      <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="14" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="19" t="n">
+      <c r="C5" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="D5" s="19" t="n">
+      <c r="D5" s="16" t="n">
         <v>48</v>
       </c>
-      <c r="E5" s="15" t="s">
+      <c r="E5" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="F5" s="0" t="n">
+      <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="14" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="18" t="s">
+      <c r="B6" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="C6" s="19" t="n">
+      <c r="C6" s="16" t="n">
         <v>47</v>
       </c>
-      <c r="D6" s="19" t="n">
+      <c r="D6" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="E6" s="15" t="s">
+      <c r="E6" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="F6" s="0" t="n">
+      <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="18" t="s">
+      <c r="A7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>74</v>
       </c>
-      <c r="C7" s="19" t="n">
+      <c r="C7" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="D7" s="19" t="n">
+      <c r="D7" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="E7" s="15" t="s">
+      <c r="E7" s="11" t="s">
         <v>75</v>
       </c>
-      <c r="F7" s="0" t="n">
+      <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="14" t="n">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="18" t="s">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="19" t="n">
+      <c r="C8" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="D8" s="14" t="n">
+      <c r="D8" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="E8" s="15" t="s">
+      <c r="E8" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F8" s="0" t="n">
+      <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="14" t="n">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="21" t="n">
+      <c r="C9" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="D9" s="19" t="n">
+      <c r="D9" s="16" t="n">
         <v>35</v>
       </c>
-      <c r="E9" s="15" t="s">
+      <c r="E9" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F9" s="0" t="n">
+      <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="14" t="n">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="22" t="n">
+      <c r="C10" s="19" t="n">
         <v>33</v>
       </c>
-      <c r="D10" s="14" t="n">
+      <c r="D10" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="E10" s="15" t="s">
+      <c r="E10" s="11" t="s">
         <v>78</v>
       </c>
-      <c r="F10" s="0" t="n">
+      <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
-      <c r="I10" s="14" t="s">
+      <c r="I10" s="10" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="14" t="n">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="20" t="s">
+      <c r="B11" s="17" t="s">
         <v>80</v>
       </c>
-      <c r="C11" s="22" t="n">
+      <c r="C11" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="D11" s="14" t="n">
+      <c r="D11" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="E11" s="15" t="s">
+      <c r="E11" s="11" t="s">
         <v>81</v>
       </c>
-      <c r="F11" s="0" t="n">
+      <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="14" t="n">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>82</v>
       </c>
-      <c r="C12" s="22" t="n">
+      <c r="C12" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="D12" s="19" t="n">
+      <c r="D12" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="E12" s="15" t="s">
+      <c r="E12" s="11" t="s">
         <v>83</v>
       </c>
-      <c r="F12" s="0" t="n">
+      <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="14" t="n">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="22" t="n">
+      <c r="C13" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="D13" s="14" t="n">
+      <c r="D13" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="15" t="s">
+      <c r="E13" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F13" s="0" t="n">
+      <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="14" t="n">
+      <c r="A14" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="23" t="s">
+      <c r="B14" s="20" t="s">
         <v>85</v>
       </c>
-      <c r="C14" s="14" t="n">
+      <c r="C14" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="D14" s="14" t="n">
+      <c r="D14" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="E14" s="15" t="s">
+      <c r="E14" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F14" s="0" t="n">
+      <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="14" t="n">
+      <c r="A15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="23" t="s">
+      <c r="B15" s="20" t="s">
         <v>87</v>
       </c>
-      <c r="C15" s="14" t="n">
+      <c r="C15" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="D15" s="19" t="n">
+      <c r="D15" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="E15" s="15" t="s">
+      <c r="E15" s="11" t="s">
         <v>88</v>
       </c>
-      <c r="F15" s="0" t="n">
+      <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
-      <c r="I15" s="14" t="s">
+      <c r="I15" s="10" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="14" t="n">
+      <c r="A16" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="23" t="s">
+      <c r="B16" s="20" t="s">
         <v>90</v>
       </c>
-      <c r="C16" s="14" t="n">
+      <c r="C16" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="D16" s="19" t="n">
+      <c r="D16" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="E16" s="15" t="s">
+      <c r="E16" s="11" t="s">
         <v>91</v>
       </c>
-      <c r="F16" s="0" t="n">
+      <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="14" t="n">
+      <c r="A17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="23" t="s">
+      <c r="B17" s="20" t="s">
         <v>92</v>
       </c>
-      <c r="C17" s="14" t="n">
+      <c r="C17" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="D17" s="19" t="n">
+      <c r="D17" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="E17" s="15" t="s">
+      <c r="E17" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F17" s="0" t="n">
+      <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="14" t="n">
+      <c r="A18" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="23" t="s">
+      <c r="B18" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C18" s="14" t="n">
+      <c r="C18" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="D18" s="14" t="n">
+      <c r="D18" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="E18" s="15" t="s">
+      <c r="E18" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F18" s="0" t="n">
+      <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="14" t="n">
+      <c r="A19" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="23" t="s">
+      <c r="B19" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C19" s="14" t="n">
+      <c r="C19" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="D19" s="14" t="n">
+      <c r="D19" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="15" t="s">
+      <c r="E19" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F19" s="0" t="n">
+      <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="14" t="n">
+      <c r="A20" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="24" t="s">
+      <c r="B20" s="21" t="s">
         <v>98</v>
       </c>
-      <c r="C20" s="14" t="n">
+      <c r="C20" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="D20" s="19" t="n">
+      <c r="D20" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="E20" s="15" t="s">
+      <c r="E20" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="F20" s="0" t="n">
+      <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="14" t="n">
+      <c r="A21" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="24" t="s">
+      <c r="B21" s="21" t="s">
         <v>100</v>
       </c>
-      <c r="C21" s="14" t="n">
+      <c r="C21" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="D21" s="14" t="n">
+      <c r="D21" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="E21" s="15" t="s">
+      <c r="E21" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="F21" s="0" t="n">
+      <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="14" t="n">
+      <c r="A22" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="24" t="s">
+      <c r="B22" s="21" t="s">
         <v>102</v>
       </c>
-      <c r="C22" s="14" t="n">
+      <c r="C22" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D22" s="14" t="n">
-        <v>6</v>
-      </c>
-      <c r="E22" s="15" t="s">
+      <c r="D22" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>103</v>
       </c>
-      <c r="F22" s="0" t="n">
+      <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="14" t="n">
+      <c r="A23" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="24" t="s">
+      <c r="B23" s="21" t="s">
         <v>104</v>
       </c>
-      <c r="C23" s="14" t="n">
+      <c r="C23" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="14" t="n">
+      <c r="D23" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="15" t="s">
+      <c r="E23" s="11" t="s">
         <v>105</v>
       </c>
-      <c r="F23" s="0" t="n">
+      <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="14" t="n">
+      <c r="A24" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="24" t="s">
+      <c r="B24" s="21" t="s">
         <v>106</v>
       </c>
-      <c r="C24" s="14" t="n">
+      <c r="C24" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="14" t="n">
+      <c r="D24" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="15" t="s">
+      <c r="E24" s="11" t="s">
         <v>107</v>
       </c>
-      <c r="F24" s="0" t="n">
+      <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
         <v>0</v>
       </c>
@@ -2263,564 +2245,564 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F5:F6 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="47.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="47.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="14"/>
-      <c r="B1" s="14" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="14" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="14" t="s">
+      <c r="D1" s="10" t="s">
         <v>108</v>
       </c>
-      <c r="E1" s="14" t="s">
+      <c r="E1" s="10" t="s">
         <v>109</v>
       </c>
-      <c r="F1" s="14" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="10" t="s">
         <v>110</v>
       </c>
-      <c r="H1" s="14" t="s">
+      <c r="H1" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="I1" s="14" t="s">
+      <c r="I1" s="10" t="s">
         <v>112</v>
       </c>
-      <c r="J1" s="14" t="s">
+      <c r="J1" s="10" t="s">
         <v>113</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="14" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="14" t="s">
+      <c r="B2" s="10" t="s">
         <v>114</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="D2" s="25"/>
-      <c r="E2" s="14" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="26" t="s">
+      <c r="C3" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="14" t="s">
+      <c r="E3" s="10" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="26" t="s">
+      <c r="C4" s="23" t="s">
         <v>118</v>
       </c>
-      <c r="E4" s="14" t="s">
+      <c r="E4" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="26" t="s">
+      <c r="C5" s="23" t="s">
         <v>120</v>
       </c>
-      <c r="E5" s="14" t="s">
+      <c r="E5" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="23" t="s">
         <v>122</v>
       </c>
-      <c r="E6" s="14" t="s">
+      <c r="E6" s="10" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="23" t="s">
         <v>123</v>
       </c>
-      <c r="E7" s="14" t="s">
+      <c r="E7" s="10" t="s">
         <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="26" t="s">
+      <c r="C8" s="23" t="s">
         <v>124</v>
       </c>
-      <c r="E8" s="14" t="s">
+      <c r="E8" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="C9" s="26" t="s">
+      <c r="C9" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="D9" s="25"/>
-      <c r="E9" s="14" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F9" s="14" t="s">
+      <c r="F9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="26" t="s">
+      <c r="C10" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="D10" s="25"/>
-      <c r="E10" s="14" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F10" s="14" t="s">
+      <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="26" t="s">
+      <c r="C11" s="23" t="s">
         <v>128</v>
       </c>
-      <c r="D11" s="25"/>
-      <c r="E11" s="14" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F11" s="14" t="s">
+      <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="26" t="s">
+      <c r="C12" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="D12" s="25"/>
-      <c r="E12" s="14" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F12" s="14" t="s">
+      <c r="F12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="26" t="s">
+      <c r="C13" s="23" t="s">
         <v>130</v>
       </c>
-      <c r="D13" s="25"/>
-      <c r="E13" s="14" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="F13" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="26" t="s">
+      <c r="C14" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="D14" s="25"/>
-      <c r="E14" s="14" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F14" s="14" t="s">
+      <c r="F14" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="D15" s="25"/>
-      <c r="E15" s="14" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="14" t="s">
+      <c r="F15" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="D16" s="25"/>
-      <c r="E16" s="14" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F16" s="14" t="s">
+      <c r="F16" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="26" t="s">
+      <c r="C17" s="23" t="s">
         <v>134</v>
       </c>
-      <c r="D17" s="25"/>
-      <c r="E17" s="14" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F17" s="14" t="s">
+      <c r="F17" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="26" t="s">
+      <c r="C18" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D18" s="25"/>
-      <c r="E18" s="14" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F18" s="14" t="s">
+      <c r="F18" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="26" t="s">
+      <c r="C19" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D19" s="25"/>
-      <c r="E19" s="14" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F19" s="14" t="s">
+      <c r="F19" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="26" t="s">
+      <c r="C20" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D20" s="25"/>
-      <c r="E20" s="14" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F20" s="14" t="s">
+      <c r="F20" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D21" s="25"/>
-      <c r="E21" s="14" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F21" s="14" t="s">
+      <c r="F21" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D22" s="25"/>
-      <c r="E22" s="14" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="F22" s="14" t="s">
+      <c r="F22" s="10" t="s">
         <v>138</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="14" t="s">
+      <c r="C23" s="10" t="s">
         <v>141</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="15" t="s">
+      <c r="C24" s="11" t="s">
         <v>142</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="14" t="s">
+      <c r="B25" s="10" t="s">
         <v>87</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="C25" s="11" t="s">
         <v>143</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="15" t="s">
+      <c r="C26" s="11" t="s">
         <v>144</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="15" t="s">
+      <c r="C27" s="11" t="s">
         <v>145</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="15" t="s">
+      <c r="C28" s="11" t="s">
         <v>146</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="15" t="s">
+      <c r="C29" s="11" t="s">
         <v>147</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="11" t="s">
         <v>148</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="15" t="s">
+      <c r="C31" s="11" t="s">
         <v>149</v>
       </c>
-      <c r="E31" s="14" t="s">
+      <c r="E31" s="10" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="15" t="s">
+      <c r="C33" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="15" t="s">
+      <c r="C36" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="14" t="s">
+      <c r="B38" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="11" t="s">
         <v>157</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="15" t="s">
+      <c r="C40" s="11" t="s">
         <v>159</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="15" t="s">
+      <c r="C41" s="11" t="s">
         <v>160</v>
       </c>
-      <c r="E41" s="14" t="s">
+      <c r="E41" s="10" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="15" t="s">
+      <c r="C42" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="E42" s="14" t="s">
+      <c r="E42" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="15" t="s">
+      <c r="C43" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="E43" s="14" t="s">
+      <c r="E43" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="15" t="s">
+      <c r="C44" s="11" t="s">
         <v>165</v>
       </c>
-      <c r="E44" s="14" t="s">
+      <c r="E44" s="10" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="14" t="s">
+      <c r="B45" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="C45" s="15" t="s">
+      <c r="C45" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="15" t="s">
+      <c r="C46" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="15" t="s">
+      <c r="C47" s="11" t="s">
         <v>168</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="15" t="s">
+      <c r="C48" s="11" t="s">
         <v>169</v>
       </c>
-      <c r="D48" s="14" t="s">
+      <c r="D48" s="10" t="s">
         <v>170</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="14" t="s">
+      <c r="B49" s="10" t="s">
         <v>102</v>
       </c>
-      <c r="C49" s="15" t="s">
+      <c r="C49" s="11" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="15" t="s">
+      <c r="C50" s="11" t="s">
         <v>172</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="14" t="s">
+      <c r="B51" s="10" t="s">
         <v>173</v>
       </c>
-      <c r="C51" s="15" t="s">
+      <c r="C51" s="11" t="s">
         <v>174</v>
       </c>
-      <c r="D51" s="14" t="s">
+      <c r="D51" s="10" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="16"/>
-      <c r="C52" s="17" t="s">
+      <c r="B52" s="12"/>
+      <c r="C52" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="D52" s="16"/>
-      <c r="E52" s="16"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="16"/>
-      <c r="C53" s="17" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="D53" s="16"/>
-      <c r="E53" s="16"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="16"/>
-      <c r="C54" s="17" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="D54" s="16"/>
-      <c r="E54" s="16"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="15" t="s">
+      <c r="C56" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="15" t="s">
+      <c r="C57" s="11" t="s">
         <v>177</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="14" t="s">
+      <c r="B58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="15" t="s">
+      <c r="C58" s="11" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="15" t="s">
+      <c r="C59" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="15" t="s">
+      <c r="C60" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="14" t="s">
+      <c r="B61" s="10" t="s">
         <v>82</v>
       </c>
-      <c r="C61" s="14" t="s">
+      <c r="C61" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="14" t="s">
+      <c r="B62" s="10" t="s">
         <v>106</v>
       </c>
-      <c r="C62" s="14" t="s">
+      <c r="C62" s="10" t="s">
         <v>181</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="14" t="s">
+      <c r="B63" s="10" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="15" t="s">
+      <c r="C64" s="11" t="s">
         <v>182</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="15" t="s">
+      <c r="C65" s="11" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="15" t="s">
+      <c r="C66" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="27" t="s">
+      <c r="C67" s="24" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="15" t="s">
+      <c r="C68" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="14" t="s">
+      <c r="B69" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="C69" s="15" t="s">
+      <c r="C69" s="11" t="s">
         <v>187</v>
       </c>
     </row>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="280" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="192">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -107,6 +107,18 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/remove-duplicates-from-sorted-list/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/merge-sorted-array/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Binary Tree</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/binary-tree-inorder-traversal/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/same-tree/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -963,8 +975,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F5" activeCellId="0" sqref="F5:F6"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1244,6 +1256,57 @@
         <v>6</v>
       </c>
       <c r="E16" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1458,6 +1521,9 @@
     <hyperlink ref="C14" r:id="rId13" display="https://leetcode.com/problems/sqrtx/"/>
     <hyperlink ref="C15" r:id="rId14" display="https://leetcode.com/problems/climbing-stairs/"/>
     <hyperlink ref="C16" r:id="rId15" display="https://leetcode.com/problems/remove-duplicates-from-sorted-list/"/>
+    <hyperlink ref="C17" r:id="rId16" display="https://leetcode.com/problems/merge-sorted-array/"/>
+    <hyperlink ref="C18" r:id="rId17" display="https://leetcode.com/problems/binary-tree-inorder-traversal/"/>
+    <hyperlink ref="C19" r:id="rId18" display="https://leetcode.com/problems/same-tree/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1477,111 +1543,111 @@
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F5:F6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>43</v>
+        <v>47</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1589,7 +1655,7 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1597,35 +1663,35 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
     </row>
   </sheetData>
@@ -1662,7 +1728,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F5:F6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1676,34 +1742,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>58</v>
+        <v>62</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>60</v>
+        <v>64</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>62</v>
+        <v>66</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>63</v>
+        <v>67</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>64</v>
+        <v>68</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1720,7 +1786,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -1747,7 +1813,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -1759,7 +1825,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -1768,7 +1834,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -1789,7 +1855,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -1801,7 +1867,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -1810,7 +1876,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -1822,7 +1888,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -1831,7 +1897,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>75</v>
+        <v>79</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -1852,7 +1918,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>76</v>
+        <v>80</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -1873,7 +1939,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -1894,14 +1960,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>78</v>
+        <v>82</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1909,7 +1975,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -1918,7 +1984,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>81</v>
+        <v>85</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -1930,7 +1996,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -1939,7 +2005,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -1960,7 +2026,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -1972,7 +2038,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>85</v>
+        <v>89</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -1981,7 +2047,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>86</v>
+        <v>90</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -1993,7 +2059,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2002,14 +2068,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>89</v>
+        <v>93</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,7 +2083,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2026,7 +2092,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2038,7 +2104,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2047,7 +2113,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2059,7 +2125,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2068,7 +2134,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>95</v>
+        <v>99</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2080,7 +2146,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>96</v>
+        <v>100</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2089,7 +2155,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2101,7 +2167,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2110,7 +2176,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>99</v>
+        <v>103</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2122,7 +2188,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2131,7 +2197,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2143,7 +2209,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2152,7 +2218,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2164,7 +2230,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2173,7 +2239,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2185,7 +2251,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2194,7 +2260,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2245,7 +2311,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="F5:F6 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2263,25 +2329,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>113</v>
+        <v>117</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2289,74 +2355,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>115</v>
+        <v>119</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>117</v>
+        <v>121</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>116</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>118</v>
+        <v>122</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>120</v>
+        <v>124</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
-        <v>122</v>
+        <v>126</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>121</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
+        <v>127</v>
+      </c>
+      <c r="E7" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>124</v>
+        <v>128</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>125</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2364,11 +2430,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>127</v>
+        <v>131</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2376,11 +2442,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>128</v>
+        <v>132</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2388,11 +2454,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>129</v>
+        <v>133</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2400,11 +2466,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2412,11 +2478,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>131</v>
+        <v>135</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2424,11 +2490,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>132</v>
+        <v>136</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2436,11 +2502,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>133</v>
+        <v>137</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2448,11 +2514,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2460,11 +2526,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2472,11 +2538,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2484,223 +2550,223 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>140</v>
+        <v>144</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>119</v>
+        <v>123</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>138</v>
+        <v>142</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>142</v>
+        <v>146</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>87</v>
+        <v>91</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>143</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>144</v>
+        <v>148</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>145</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>154</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>155</v>
+        <v>159</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>158</v>
+        <v>162</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>90</v>
+        <v>94</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2708,7 +2774,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2716,7 +2782,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2726,12 +2792,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2739,71 +2805,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="292" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="192">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -975,8 +975,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E22" activeCellId="0" sqref="E22"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1272,8 +1272,8 @@
       <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="3" t="s">
-        <v>7</v>
+      <c r="E17" s="3" t="n">
+        <v>12.25</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1310,6 +1310,7 @@
         <v>7</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="194">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -119,6 +119,12 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/same-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/symmetric-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -975,8 +981,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B9" activeCellId="0" sqref="B9"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1310,8 +1316,40 @@
         <v>7</v>
       </c>
     </row>
-    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
-    <row r="1048383" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
+    <row r="20" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E20" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E21" s="3" t="n">
+        <v>17.52</v>
+      </c>
+    </row>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1525,6 +1563,8 @@
     <hyperlink ref="C17" r:id="rId16" display="https://leetcode.com/problems/merge-sorted-array/"/>
     <hyperlink ref="C18" r:id="rId17" display="https://leetcode.com/problems/binary-tree-inorder-traversal/"/>
     <hyperlink ref="C19" r:id="rId18" display="https://leetcode.com/problems/same-tree/"/>
+    <hyperlink ref="C20" r:id="rId19" display="https://leetcode.com/problems/symmetric-tree/"/>
+    <hyperlink ref="C21" r:id="rId20" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1551,104 +1591,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1656,7 +1696,7 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1664,35 +1704,35 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -1743,34 +1783,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1787,7 +1827,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -1814,7 +1854,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -1826,7 +1866,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -1835,7 +1875,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -1856,7 +1896,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -1868,7 +1908,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -1877,7 +1917,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -1889,7 +1929,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -1898,7 +1938,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -1919,7 +1959,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -1940,7 +1980,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -1961,14 +2001,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,7 +2016,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -1985,7 +2025,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -1997,7 +2037,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -2006,7 +2046,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -2027,7 +2067,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -2039,7 +2079,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -2048,7 +2088,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -2060,7 +2100,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2069,14 +2109,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2084,7 +2124,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2093,7 +2133,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2105,7 +2145,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2114,7 +2154,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2126,7 +2166,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2135,7 +2175,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2147,7 +2187,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2156,7 +2196,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2168,7 +2208,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2177,7 +2217,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2189,7 +2229,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2198,7 +2238,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2210,7 +2250,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2219,7 +2259,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2231,7 +2271,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2240,7 +2280,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2252,7 +2292,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2261,7 +2301,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2330,25 +2370,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2356,74 +2396,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2431,11 +2471,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2443,11 +2483,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2455,11 +2495,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2467,11 +2507,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2479,11 +2519,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2491,11 +2531,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2503,11 +2543,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2515,11 +2555,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2527,11 +2567,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2539,11 +2579,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2551,223 +2591,223 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E44" s="10" t="s">
         <v>169</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2775,7 +2815,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2783,7 +2823,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2793,12 +2833,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2806,71 +2846,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="298" uniqueCount="194">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="195">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -125,6 +125,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -981,8 +984,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A3" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C21" activeCellId="0" sqref="C21"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1348,6 +1351,23 @@
       </c>
       <c r="E21" s="3" t="n">
         <v>17.52</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1565,6 +1585,7 @@
     <hyperlink ref="C19" r:id="rId18" display="https://leetcode.com/problems/same-tree/"/>
     <hyperlink ref="C20" r:id="rId19" display="https://leetcode.com/problems/symmetric-tree/"/>
     <hyperlink ref="C21" r:id="rId20" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1591,104 +1612,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1696,7 +1717,7 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
@@ -1704,35 +1725,35 @@
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="12"/>
       <c r="B24" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" s="12"/>
       <c r="D24" s="12"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="10" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B27" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G27" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="B28" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -1783,34 +1804,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1827,7 +1848,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -1854,7 +1875,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -1866,7 +1887,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -1875,7 +1896,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -1896,7 +1917,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -1908,7 +1929,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -1917,7 +1938,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -1929,7 +1950,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -1938,7 +1959,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -1959,7 +1980,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -1980,7 +2001,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -2001,14 +2022,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2016,7 +2037,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -2025,7 +2046,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -2037,7 +2058,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -2046,7 +2067,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -2067,7 +2088,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -2079,7 +2100,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -2088,7 +2109,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -2100,7 +2121,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2109,14 +2130,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2124,7 +2145,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2133,7 +2154,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2145,7 +2166,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2154,7 +2175,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2166,7 +2187,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2175,7 +2196,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2187,7 +2208,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2196,7 +2217,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2208,7 +2229,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2217,7 +2238,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2229,7 +2250,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2238,7 +2259,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2250,7 +2271,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2259,7 +2280,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2271,7 +2292,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2280,7 +2301,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2292,7 +2313,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2301,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2370,25 +2391,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2396,74 +2417,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
+        <v>124</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>128</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2471,11 +2492,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2483,11 +2504,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2495,11 +2516,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2507,11 +2528,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2519,11 +2540,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2531,11 +2552,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2543,11 +2564,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2555,11 +2576,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2567,11 +2588,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2579,11 +2600,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2591,223 +2612,223 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F20" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F22" s="10" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
+        <v>171</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>170</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2815,7 +2836,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2823,7 +2844,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2833,12 +2854,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2846,71 +2867,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="302" uniqueCount="195">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="196">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -127,7 +127,13 @@
     <t xml:space="preserve">https://leetcode.com/problems/maximum-depth-of-binary-tree/</t>
   </si>
   <si>
-    <t xml:space="preserve">https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/</t>
+    <t xml:space="preserve">https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/add-two-numbers</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Medium</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -458,9 +464,6 @@
   </si>
   <si>
     <t xml:space="preserve">Find Itinerary from a given list of tickets</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Medium</t>
   </si>
   <si>
     <t xml:space="preserve">Find number of Employees Under every Employee</t>
@@ -618,7 +621,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="15">
+  <fonts count="16">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -674,6 +677,12 @@
       <name val="FontAwesome"/>
       <family val="0"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF000000"/>
+      <name val="FontAwesome"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -804,7 +813,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -846,14 +855,14 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -861,19 +870,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -881,27 +886,35 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -985,7 +998,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D24" activeCellId="0" sqref="D24"/>
+      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1360,7 +1373,7 @@
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="2" t="s">
+      <c r="C22" s="10" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1370,6 +1383,24 @@
         <v>7</v>
       </c>
     </row>
+    <row r="23" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="3" t="n">
+        <v>13.02</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1585,7 +1616,8 @@
     <hyperlink ref="C19" r:id="rId18" display="https://leetcode.com/problems/same-tree/"/>
     <hyperlink ref="C20" r:id="rId19" display="https://leetcode.com/problems/symmetric-tree/"/>
     <hyperlink ref="C21" r:id="rId20" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
-    <hyperlink ref="C22" r:id="rId21" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/description/"/>
+    <hyperlink ref="C22" r:id="rId21" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/"/>
+    <hyperlink ref="C23" r:id="rId22" display="https://leetcode.com/problems/add-two-numbers"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1611,149 +1643,149 @@
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>36</v>
+      <c r="A1" s="11" t="s">
+        <v>37</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="s">
-        <v>37</v>
+      <c r="A2" s="11" t="s">
+        <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="s">
-        <v>38</v>
+      <c r="A3" s="11" t="s">
+        <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="s">
-        <v>39</v>
+      <c r="A4" s="11" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="s">
-        <v>40</v>
+      <c r="A5" s="11" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="10" t="s">
-        <v>42</v>
+      <c r="A6" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="s">
-        <v>43</v>
+      <c r="A7" s="11" t="s">
+        <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="s">
-        <v>44</v>
+      <c r="A8" s="11" t="s">
+        <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="s">
-        <v>45</v>
+      <c r="A9" s="11" t="s">
+        <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="s">
-        <v>46</v>
+      <c r="A11" s="11" t="s">
+        <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="11" t="s">
-        <v>47</v>
+      <c r="B12" s="12" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="11" t="s">
-        <v>48</v>
+      <c r="B13" s="12" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="11" t="s">
-        <v>49</v>
+      <c r="B14" s="12" t="s">
+        <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="11" t="s">
-        <v>50</v>
+      <c r="B15" s="12" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="11" t="s">
-        <v>51</v>
+      <c r="B16" s="12" t="s">
+        <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="11" t="s">
-        <v>52</v>
+      <c r="B17" s="12" t="s">
+        <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="11" t="s">
-        <v>53</v>
+      <c r="B18" s="12" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="s">
-        <v>54</v>
+      <c r="A21" s="11" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="12"/>
-      <c r="B22" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="C22" s="12"/>
-      <c r="D22" s="12"/>
+      <c r="A22" s="13"/>
+      <c r="B22" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" s="13"/>
+      <c r="D22" s="13"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="12"/>
-      <c r="B23" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="C23" s="12"/>
-      <c r="D23" s="12"/>
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C23" s="13"/>
+      <c r="D23" s="13"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="12"/>
-      <c r="B24" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="C24" s="12"/>
-      <c r="D24" s="12"/>
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="C24" s="13"/>
+      <c r="D24" s="13"/>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="10" t="s">
-        <v>58</v>
+      <c r="A25" s="11" t="s">
+        <v>60</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="11" t="s">
-        <v>59</v>
+      <c r="B26" s="12" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="11" t="s">
-        <v>60</v>
-      </c>
-      <c r="G27" s="10" t="s">
-        <v>61</v>
+      <c r="B27" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="G27" s="11" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="10" t="s">
-        <v>62</v>
-      </c>
-      <c r="B28" s="10" t="s">
-        <v>63</v>
+      <c r="A28" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>65</v>
       </c>
     </row>
   </sheetData>
@@ -1795,536 +1827,536 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="6.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="23.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="6.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="31.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="B1" s="10" t="s">
-        <v>65</v>
-      </c>
-      <c r="C1" s="10" t="s">
+      <c r="A1" s="11" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="B1" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="E1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>68</v>
       </c>
-      <c r="F1" s="10" t="s">
+      <c r="D1" s="11" t="s">
         <v>69</v>
       </c>
-      <c r="G1" s="10" t="s">
+      <c r="E1" s="11" t="s">
         <v>70</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="F1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="I1" s="10" t="s">
+      <c r="G1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="J1" s="10" t="s">
+      <c r="H1" s="11" t="s">
         <v>73</v>
       </c>
+      <c r="I1" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
+      <c r="A2" s="11" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="16" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="16" t="n">
+      <c r="C2" s="17" t="n">
         <v>79</v>
       </c>
-      <c r="D2" s="16" t="n">
+      <c r="D2" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="E2" s="11" t="s">
-        <v>74</v>
-      </c>
-      <c r="F2" s="14" t="n">
+      <c r="E2" s="12" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" s="15" t="n">
         <f aca="false">INT(C2/10)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="10" t="n">
+      <c r="G2" s="11" t="n">
         <v>173</v>
       </c>
-      <c r="I2" s="10" t="n">
+      <c r="I2" s="11" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="10" t="n">
+      <c r="A3" s="11" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="15" t="s">
+      <c r="B3" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="16" t="n">
+      <c r="C3" s="17" t="n">
         <v>64</v>
       </c>
-      <c r="D3" s="16" t="n">
+      <c r="D3" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>75</v>
-      </c>
-      <c r="F3" s="14" t="n">
+      <c r="E3" s="12" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="15" t="n">
         <f aca="false">INT(C3/10)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="10" t="n">
+      <c r="A4" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="C4" s="16" t="n">
+      <c r="B4" s="16" t="s">
+        <v>78</v>
+      </c>
+      <c r="C4" s="17" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="16" t="n">
+      <c r="D4" s="17" t="n">
         <v>33</v>
       </c>
-      <c r="E4" s="11" t="s">
-        <v>77</v>
-      </c>
-      <c r="F4" s="14" t="n">
+      <c r="E4" s="12" t="s">
+        <v>79</v>
+      </c>
+      <c r="F4" s="15" t="n">
         <f aca="false">INT(C4/10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="10" t="n">
+      <c r="A5" s="11" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="15" t="s">
+      <c r="B5" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="16" t="n">
+      <c r="C5" s="17" t="n">
         <v>49</v>
       </c>
-      <c r="D5" s="16" t="n">
+      <c r="D5" s="17" t="n">
         <v>48</v>
       </c>
-      <c r="E5" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="F5" s="14" t="n">
+      <c r="E5" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="F5" s="15" t="n">
         <f aca="false">INT(C5/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="10" t="n">
+      <c r="A6" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="15" t="s">
-        <v>79</v>
-      </c>
-      <c r="C6" s="16" t="n">
+      <c r="B6" s="16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="17" t="n">
         <v>47</v>
       </c>
-      <c r="D6" s="16" t="n">
+      <c r="D6" s="17" t="n">
         <v>24</v>
       </c>
-      <c r="E6" s="11" t="s">
-        <v>80</v>
-      </c>
-      <c r="F6" s="14" t="n">
+      <c r="E6" s="12" t="s">
+        <v>82</v>
+      </c>
+      <c r="F6" s="15" t="n">
         <f aca="false">INT(C6/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>81</v>
-      </c>
-      <c r="C7" s="16" t="n">
+      <c r="A7" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="C7" s="17" t="n">
         <v>42</v>
       </c>
-      <c r="D7" s="16" t="n">
+      <c r="D7" s="17" t="n">
         <v>32</v>
       </c>
-      <c r="E7" s="11" t="s">
-        <v>82</v>
-      </c>
-      <c r="F7" s="14" t="n">
+      <c r="E7" s="12" t="s">
+        <v>84</v>
+      </c>
+      <c r="F7" s="15" t="n">
         <f aca="false">INT(C7/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="10" t="n">
+      <c r="A8" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B8" s="16" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="16" t="n">
+      <c r="C8" s="17" t="n">
         <v>40</v>
       </c>
-      <c r="D8" s="10" t="n">
+      <c r="D8" s="11" t="n">
         <v>30</v>
       </c>
-      <c r="E8" s="11" t="s">
-        <v>83</v>
-      </c>
-      <c r="F8" s="14" t="n">
+      <c r="E8" s="12" t="s">
+        <v>85</v>
+      </c>
+      <c r="F8" s="15" t="n">
         <f aca="false">INT(C8/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="10" t="n">
+      <c r="A9" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="17" t="s">
+      <c r="B9" s="18" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="18" t="n">
+      <c r="C9" s="19" t="n">
         <v>35</v>
       </c>
-      <c r="D9" s="16" t="n">
+      <c r="D9" s="17" t="n">
         <v>35</v>
       </c>
-      <c r="E9" s="11" t="s">
-        <v>84</v>
-      </c>
-      <c r="F9" s="14" t="n">
+      <c r="E9" s="12" t="s">
+        <v>86</v>
+      </c>
+      <c r="F9" s="15" t="n">
         <f aca="false">INT(C9/10)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="10" t="n">
+      <c r="A10" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="17" t="s">
+      <c r="B10" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="19" t="n">
+      <c r="C10" s="20" t="n">
         <v>33</v>
       </c>
-      <c r="D10" s="10" t="n">
+      <c r="D10" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="E10" s="11" t="s">
-        <v>85</v>
-      </c>
-      <c r="F10" s="14" t="n">
+      <c r="E10" s="12" t="s">
+        <v>87</v>
+      </c>
+      <c r="F10" s="15" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
-      <c r="I10" s="10" t="s">
-        <v>86</v>
+      <c r="I10" s="11" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="10" t="n">
+      <c r="A11" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="17" t="s">
-        <v>87</v>
-      </c>
-      <c r="C11" s="19" t="n">
+      <c r="B11" s="18" t="s">
+        <v>89</v>
+      </c>
+      <c r="C11" s="20" t="n">
         <v>23</v>
       </c>
-      <c r="D11" s="10" t="n">
+      <c r="D11" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="E11" s="11" t="s">
-        <v>88</v>
-      </c>
-      <c r="F11" s="14" t="n">
+      <c r="E11" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="F11" s="15" t="n">
         <f aca="false">INT(C11/10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="10" t="n">
+      <c r="A12" s="11" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="17" t="s">
-        <v>89</v>
-      </c>
-      <c r="C12" s="19" t="n">
+      <c r="B12" s="18" t="s">
+        <v>91</v>
+      </c>
+      <c r="C12" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="D12" s="16" t="n">
+      <c r="D12" s="17" t="n">
         <v>17</v>
       </c>
-      <c r="E12" s="11" t="s">
-        <v>90</v>
-      </c>
-      <c r="F12" s="14" t="n">
+      <c r="E12" s="12" t="s">
+        <v>92</v>
+      </c>
+      <c r="F12" s="15" t="n">
         <f aca="false">INT(C12/10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="10" t="n">
+      <c r="A13" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="17" t="s">
+      <c r="B13" s="18" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="19" t="n">
+      <c r="C13" s="20" t="n">
         <v>21</v>
       </c>
-      <c r="D13" s="10" t="n">
+      <c r="D13" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="11" t="s">
-        <v>91</v>
-      </c>
-      <c r="F13" s="14" t="n">
+      <c r="E13" s="12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F13" s="15" t="n">
         <f aca="false">INT(C13/10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="10" t="n">
+      <c r="A14" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="20" t="s">
-        <v>92</v>
-      </c>
-      <c r="C14" s="10" t="n">
+      <c r="B14" s="21" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="D14" s="10" t="n">
+      <c r="D14" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="E14" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F14" s="14" t="n">
+      <c r="E14" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="F14" s="15" t="n">
         <f aca="false">INT(C14/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="10" t="n">
+      <c r="A15" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="20" t="s">
-        <v>94</v>
-      </c>
-      <c r="C15" s="10" t="n">
+      <c r="B15" s="21" t="s">
+        <v>96</v>
+      </c>
+      <c r="C15" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="D15" s="16" t="n">
+      <c r="D15" s="17" t="n">
         <v>18</v>
       </c>
-      <c r="E15" s="11" t="s">
-        <v>95</v>
-      </c>
-      <c r="F15" s="14" t="n">
+      <c r="E15" s="12" t="s">
+        <v>97</v>
+      </c>
+      <c r="F15" s="15" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
-      <c r="I15" s="10" t="s">
-        <v>96</v>
+      <c r="I15" s="11" t="s">
+        <v>98</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="10" t="n">
+      <c r="A16" s="11" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="20" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="10" t="n">
+      <c r="B16" s="21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="D16" s="16" t="n">
+      <c r="D16" s="17" t="n">
         <v>16</v>
       </c>
-      <c r="E16" s="11" t="s">
-        <v>98</v>
-      </c>
-      <c r="F16" s="14" t="n">
+      <c r="E16" s="12" t="s">
+        <v>100</v>
+      </c>
+      <c r="F16" s="15" t="n">
         <f aca="false">INT(C16/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="10" t="n">
+      <c r="A17" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="20" t="s">
-        <v>99</v>
-      </c>
-      <c r="C17" s="10" t="n">
+      <c r="B17" s="21" t="s">
+        <v>101</v>
+      </c>
+      <c r="C17" s="11" t="n">
         <v>14</v>
       </c>
-      <c r="D17" s="16" t="n">
+      <c r="D17" s="17" t="n">
         <v>11</v>
       </c>
-      <c r="E17" s="11" t="s">
-        <v>100</v>
-      </c>
-      <c r="F17" s="14" t="n">
+      <c r="E17" s="12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" s="15" t="n">
         <f aca="false">INT(C17/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="10" t="n">
+      <c r="A18" s="11" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="20" t="s">
-        <v>101</v>
-      </c>
-      <c r="C18" s="10" t="n">
+      <c r="B18" s="21" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18" s="11" t="n">
         <v>13</v>
       </c>
-      <c r="D18" s="10" t="n">
+      <c r="D18" s="11" t="n">
         <v>16</v>
       </c>
-      <c r="E18" s="11" t="s">
-        <v>102</v>
-      </c>
-      <c r="F18" s="14" t="n">
+      <c r="E18" s="12" t="s">
+        <v>104</v>
+      </c>
+      <c r="F18" s="15" t="n">
         <f aca="false">INT(C18/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="10" t="n">
+      <c r="A19" s="11" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C19" s="10" t="n">
+      <c r="B19" s="21" t="s">
+        <v>105</v>
+      </c>
+      <c r="C19" s="11" t="n">
         <v>12</v>
       </c>
-      <c r="D19" s="10" t="n">
+      <c r="D19" s="11" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="F19" s="14" t="n">
+      <c r="E19" s="12" t="s">
+        <v>106</v>
+      </c>
+      <c r="F19" s="15" t="n">
         <f aca="false">INT(C19/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="10" t="n">
+      <c r="A20" s="11" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="C20" s="10" t="n">
+      <c r="B20" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="C20" s="11" t="n">
         <v>9</v>
       </c>
-      <c r="D20" s="16" t="n">
+      <c r="D20" s="17" t="n">
         <v>14</v>
       </c>
-      <c r="E20" s="11" t="s">
-        <v>106</v>
-      </c>
-      <c r="F20" s="14" t="n">
+      <c r="E20" s="12" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" s="15" t="n">
         <f aca="false">INT(C20/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="10" t="n">
+      <c r="A21" s="11" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="C21" s="10" t="n">
+      <c r="B21" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="C21" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="D21" s="10" t="n">
+      <c r="D21" s="11" t="n">
         <v>8</v>
       </c>
-      <c r="E21" s="11" t="s">
-        <v>108</v>
-      </c>
-      <c r="F21" s="14" t="n">
+      <c r="E21" s="12" t="s">
+        <v>110</v>
+      </c>
+      <c r="F21" s="15" t="n">
         <f aca="false">INT(C21/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="10" t="n">
+      <c r="A22" s="11" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="C22" s="10" t="n">
+      <c r="B22" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="C22" s="11" t="n">
         <v>7</v>
       </c>
-      <c r="D22" s="10" t="n">
-        <v>6</v>
-      </c>
-      <c r="E22" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="F22" s="14" t="n">
+      <c r="D22" s="11" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="12" t="s">
+        <v>112</v>
+      </c>
+      <c r="F22" s="15" t="n">
         <f aca="false">INT(C22/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="10" t="n">
+      <c r="A23" s="11" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="21" t="s">
-        <v>111</v>
-      </c>
-      <c r="C23" s="10" t="n">
+      <c r="B23" s="22" t="s">
+        <v>113</v>
+      </c>
+      <c r="C23" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="10" t="n">
+      <c r="D23" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="11" t="s">
-        <v>112</v>
-      </c>
-      <c r="F23" s="14" t="n">
+      <c r="E23" s="12" t="s">
+        <v>114</v>
+      </c>
+      <c r="F23" s="15" t="n">
         <f aca="false">INT(C23/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="10" t="n">
+      <c r="A24" s="11" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="21" t="s">
-        <v>113</v>
-      </c>
-      <c r="C24" s="10" t="n">
+      <c r="B24" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="C24" s="11" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="10" t="n">
+      <c r="D24" s="11" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="11" t="s">
-        <v>114</v>
-      </c>
-      <c r="F24" s="14" t="n">
+      <c r="E24" s="12" t="s">
+        <v>116</v>
+      </c>
+      <c r="F24" s="15" t="n">
         <f aca="false">INT(C24/10)</f>
         <v>0</v>
       </c>
@@ -2378,560 +2410,560 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="47.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="47.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="10"/>
-      <c r="B1" s="10" t="s">
+      <c r="A1" s="11"/>
+      <c r="B1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="10" t="s">
+      <c r="C1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="10" t="s">
+      <c r="D1" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" s="11" t="s">
+        <v>2</v>
+      </c>
+      <c r="G1" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="H1" s="11" t="s">
+        <v>120</v>
+      </c>
+      <c r="I1" s="11" t="s">
+        <v>121</v>
+      </c>
+      <c r="J1" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="11" t="n">
+        <v>1</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>123</v>
+      </c>
+      <c r="C2" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D2" s="23"/>
+      <c r="E2" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C3" s="24" t="s">
+        <v>126</v>
+      </c>
+      <c r="E3" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C4" s="24" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C5" s="24" t="s">
+        <v>129</v>
+      </c>
+      <c r="E5" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C6" s="24" t="s">
+        <v>131</v>
+      </c>
+      <c r="E6" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C7" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="E7" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C8" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="E8" s="11" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B9" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="C9" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D9" s="23"/>
+      <c r="E9" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F9" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C10" s="24" t="s">
+        <v>136</v>
+      </c>
+      <c r="D10" s="23"/>
+      <c r="E10" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F10" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C11" s="24" t="s">
+        <v>137</v>
+      </c>
+      <c r="D11" s="23"/>
+      <c r="E11" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C12" s="24" t="s">
+        <v>138</v>
+      </c>
+      <c r="D12" s="23"/>
+      <c r="E12" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F12" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C13" s="24" t="s">
+        <v>139</v>
+      </c>
+      <c r="D13" s="23"/>
+      <c r="E13" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F13" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C14" s="24" t="s">
+        <v>140</v>
+      </c>
+      <c r="D14" s="23"/>
+      <c r="E14" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F14" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C15" s="24" t="s">
+        <v>141</v>
+      </c>
+      <c r="D15" s="23"/>
+      <c r="E15" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F15" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C16" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="D16" s="23"/>
+      <c r="E16" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F16" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C17" s="24" t="s">
+        <v>143</v>
+      </c>
+      <c r="D17" s="23"/>
+      <c r="E17" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F17" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C18" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="D18" s="23"/>
+      <c r="E18" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F18" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C19" s="24" t="s">
+        <v>145</v>
+      </c>
+      <c r="D19" s="23"/>
+      <c r="E19" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F19" s="11" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C20" s="24" t="s">
+        <v>146</v>
+      </c>
+      <c r="D20" s="23"/>
+      <c r="E20" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F20" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C21" s="24" t="s">
+        <v>147</v>
+      </c>
+      <c r="D21" s="23"/>
+      <c r="E21" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F21" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C22" s="24" t="s">
+        <v>148</v>
+      </c>
+      <c r="D22" s="23"/>
+      <c r="E22" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F22" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C23" s="11" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C24" s="12" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B25" s="11" t="s">
+        <v>96</v>
+      </c>
+      <c r="C25" s="12" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C26" s="12" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C27" s="12" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C28" s="12" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C29" s="12" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C30" s="12" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C31" s="12" t="s">
+        <v>157</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B32" s="11" t="s">
+        <v>159</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C33" s="12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C35" s="12" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C36" s="12" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C37" s="12" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B38" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C39" s="12" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C40" s="12" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C41" s="12" t="s">
+        <v>168</v>
+      </c>
+      <c r="E41" s="11" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C42" s="12" t="s">
+        <v>170</v>
+      </c>
+      <c r="E42" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C43" s="12" t="s">
+        <v>172</v>
+      </c>
+      <c r="E43" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C44" s="12" t="s">
+        <v>173</v>
+      </c>
+      <c r="E44" s="11" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B45" s="11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" s="12" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C46" s="12" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C47" s="12" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C48" s="12" t="s">
+        <v>177</v>
+      </c>
+      <c r="D48" s="11" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B49" s="11" t="s">
+        <v>111</v>
+      </c>
+      <c r="C49" s="12" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C50" s="12" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B51" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>182</v>
+      </c>
+      <c r="D51" s="11" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B52" s="13"/>
+      <c r="C52" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="D52" s="13"/>
+      <c r="E52" s="13"/>
+    </row>
+    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B53" s="13"/>
+      <c r="C53" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D53" s="13"/>
+      <c r="E53" s="13"/>
+    </row>
+    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B54" s="13"/>
+      <c r="C54" s="14" t="s">
+        <v>59</v>
+      </c>
+      <c r="D54" s="13"/>
+      <c r="E54" s="13"/>
+    </row>
+    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B56" s="11" t="s">
+        <v>4</v>
+      </c>
+      <c r="C56" s="12" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C57" s="12" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B58" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C58" s="12" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C59" s="12" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C60" s="12" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B61" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C61" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B62" s="11" t="s">
         <v>115</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>116</v>
-      </c>
-      <c r="F1" s="10" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" s="10" t="s">
-        <v>117</v>
-      </c>
-      <c r="H1" s="10" t="s">
-        <v>118</v>
-      </c>
-      <c r="I1" s="10" t="s">
-        <v>119</v>
-      </c>
-      <c r="J1" s="10" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="10" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" s="10" t="s">
-        <v>121</v>
-      </c>
-      <c r="C2" s="11" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" s="22"/>
-      <c r="E2" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="23" t="s">
-        <v>124</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="23" t="s">
-        <v>125</v>
-      </c>
-      <c r="E4" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="23" t="s">
-        <v>127</v>
-      </c>
-      <c r="E5" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="23" t="s">
-        <v>129</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="23" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="10" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="23" t="s">
-        <v>131</v>
-      </c>
-      <c r="E8" s="10" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="10" t="s">
-        <v>76</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>133</v>
-      </c>
-      <c r="D9" s="22"/>
-      <c r="E9" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F9" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="23" t="s">
-        <v>134</v>
-      </c>
-      <c r="D10" s="22"/>
-      <c r="E10" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F10" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="23" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="22"/>
-      <c r="E11" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F11" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="23" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="22"/>
-      <c r="E12" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F12" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="23" t="s">
-        <v>137</v>
-      </c>
-      <c r="D13" s="22"/>
-      <c r="E13" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F13" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="23" t="s">
-        <v>138</v>
-      </c>
-      <c r="D14" s="22"/>
-      <c r="E14" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F14" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="23" t="s">
-        <v>139</v>
-      </c>
-      <c r="D15" s="22"/>
-      <c r="E15" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F15" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="23" t="s">
-        <v>140</v>
-      </c>
-      <c r="D16" s="22"/>
-      <c r="E16" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F16" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="23" t="s">
-        <v>141</v>
-      </c>
-      <c r="D17" s="22"/>
-      <c r="E17" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F17" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="23" t="s">
-        <v>142</v>
-      </c>
-      <c r="D18" s="22"/>
-      <c r="E18" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F18" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="23" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" s="22"/>
-      <c r="E19" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F19" s="10" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="23" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" s="22"/>
-      <c r="E20" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F20" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="23" t="s">
-        <v>146</v>
-      </c>
-      <c r="D21" s="22"/>
-      <c r="E21" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F21" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D22" s="22"/>
-      <c r="E22" s="10" t="s">
-        <v>126</v>
-      </c>
-      <c r="F22" s="10" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="10" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="11" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="10" t="s">
-        <v>94</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="11" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="11" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="11" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="11" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="11" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="11" t="s">
-        <v>156</v>
-      </c>
-      <c r="E31" s="10" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C32" s="11" t="s">
+      <c r="C62" s="11" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B63" s="11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C64" s="12" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C65" s="12" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C66" s="12" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C67" s="25" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="C68" s="12" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B69" s="11" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="11" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="11" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="11" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="11" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="10" t="s">
-        <v>99</v>
-      </c>
-      <c r="C38" s="11" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="11" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="11" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="11" t="s">
-        <v>167</v>
-      </c>
-      <c r="E41" s="10" t="s">
-        <v>168</v>
-      </c>
-    </row>
-    <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="11" t="s">
-        <v>169</v>
-      </c>
-      <c r="E42" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="11" t="s">
-        <v>171</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="11" t="s">
-        <v>172</v>
-      </c>
-      <c r="E44" s="10" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="10" t="s">
-        <v>97</v>
-      </c>
-      <c r="C45" s="11" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="11" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="11" t="s">
-        <v>176</v>
-      </c>
-      <c r="D48" s="10" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="C49" s="11" t="s">
-        <v>178</v>
-      </c>
-    </row>
-    <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="11" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="10" t="s">
-        <v>180</v>
-      </c>
-      <c r="C51" s="11" t="s">
-        <v>181</v>
-      </c>
-      <c r="D51" s="10" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="12"/>
-      <c r="C52" s="13" t="s">
-        <v>55</v>
-      </c>
-      <c r="D52" s="12"/>
-      <c r="E52" s="12"/>
-    </row>
-    <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="12"/>
-      <c r="C53" s="13" t="s">
-        <v>56</v>
-      </c>
-      <c r="D53" s="12"/>
-      <c r="E53" s="12"/>
-    </row>
-    <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="12"/>
-      <c r="C54" s="13" t="s">
-        <v>57</v>
-      </c>
-      <c r="D54" s="12"/>
-      <c r="E54" s="12"/>
-    </row>
-    <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="10" t="s">
-        <v>4</v>
-      </c>
-      <c r="C56" s="11" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="11" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="10" t="s">
-        <v>14</v>
-      </c>
-      <c r="C58" s="11" t="s">
-        <v>185</v>
-      </c>
-    </row>
-    <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="11" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="11" t="s">
-        <v>187</v>
-      </c>
-    </row>
-    <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="10" t="s">
-        <v>89</v>
-      </c>
-      <c r="C61" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="C62" s="10" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="10" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="11" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="11" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="11" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="24" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="11" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="C69" s="11" t="s">
-        <v>194</v>
+      <c r="C69" s="12" t="s">
+        <v>195</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="All Questions" sheetId="1" state="visible" r:id="rId2"/>
@@ -621,7 +621,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="d\ mmmm"/>
   </numFmts>
-  <fonts count="16">
+  <fonts count="15">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -677,12 +677,6 @@
       <name val="FontAwesome"/>
       <family val="0"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
-      <name val="FontAwesome"/>
-      <family val="0"/>
     </font>
     <font>
       <sz val="11"/>
@@ -813,7 +807,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -855,10 +849,26 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="9" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -866,19 +876,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="10" fillId="3" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -886,35 +884,27 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="5" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="6" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="165" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="164" fontId="15" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="14" fillId="7" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+    <xf numFmtId="164" fontId="10" fillId="8" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -997,7 +987,7 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
     </sheetView>
   </sheetViews>
@@ -1373,7 +1363,7 @@
       <c r="B22" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="C22" s="10" t="s">
+      <c r="C22" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -1634,160 +1624,161 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G28"/>
+  <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>37</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="s">
+      <c r="A2" s="10" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="s">
+      <c r="A3" s="10" t="s">
         <v>40</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="s">
+      <c r="A4" s="10" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="s">
+      <c r="A5" s="10" t="s">
         <v>42</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="s">
+      <c r="A6" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="10" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="s">
+      <c r="A7" s="10" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="s">
+      <c r="A8" s="10" t="s">
         <v>46</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="s">
+      <c r="A9" s="10" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="s">
+      <c r="A11" s="10" t="s">
         <v>48</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B12" s="12" t="s">
+      <c r="B12" s="11" t="s">
         <v>49</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B13" s="12" t="s">
+      <c r="B13" s="11" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B14" s="12" t="s">
+      <c r="B14" s="11" t="s">
         <v>51</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B15" s="12" t="s">
+      <c r="B15" s="11" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B16" s="12" t="s">
+      <c r="B16" s="11" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B17" s="12" t="s">
+      <c r="B17" s="11" t="s">
         <v>54</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B18" s="12" t="s">
+      <c r="B18" s="11" t="s">
         <v>55</v>
       </c>
     </row>
+    <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="10" t="s">
+        <v>56</v>
+      </c>
+    </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="s">
-        <v>56</v>
-      </c>
+      <c r="A21" s="12"/>
+      <c r="B21" s="13" t="s">
+        <v>57</v>
+      </c>
+      <c r="C21" s="12"/>
+      <c r="D21" s="12"/>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="13"/>
-      <c r="B22" s="14" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" s="13"/>
-      <c r="D22" s="13"/>
+      <c r="A22" s="12"/>
+      <c r="B22" s="13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C22" s="12"/>
+      <c r="D22" s="12"/>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
-        <v>58</v>
-      </c>
-      <c r="C23" s="13"/>
-      <c r="D23" s="13"/>
+      <c r="A23" s="12"/>
+      <c r="B23" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="C23" s="12"/>
+      <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
-        <v>59</v>
-      </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="13"/>
+      <c r="A24" s="10" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A25" s="11" t="s">
-        <v>60</v>
+      <c r="B25" s="11" t="s">
+        <v>61</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="12" t="s">
-        <v>61</v>
+      <c r="B26" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>63</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="12" t="s">
-        <v>62</v>
-      </c>
-      <c r="G27" s="11" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A28" s="11" t="s">
+      <c r="A27" s="10" t="s">
         <v>64</v>
       </c>
-      <c r="B28" s="11" t="s">
+      <c r="B27" s="10" t="s">
         <v>65</v>
       </c>
     </row>
+    <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="B1" r:id="rId1" display="https://www.linkedin.com/pulse/how-i-cleared-google-interview-from-0-200-leetcode-questions/"/>
@@ -1798,11 +1789,11 @@
     <hyperlink ref="B16" r:id="rId6" display="https://leetcode.com/discuss/general-discussion/366193/Losing-motivation..."/>
     <hyperlink ref="B17" r:id="rId7" display="https://leetcode.com/discuss/general-discussion/362436/Full-Time-Employees-Time-Management"/>
     <hyperlink ref="B18" r:id="rId8" display="https://leetcode.com/discuss/general-discussion/318537/Consistent-Practice-Advice"/>
-    <hyperlink ref="B22" r:id="rId9" display="https://www.geeksforgeeks.org/must-do-coding-questions-for-companies-like-amazon-microsoft-adobe/"/>
-    <hyperlink ref="B23" r:id="rId10" display="https://www.geeksforgeeks.org/data-structures/"/>
-    <hyperlink ref="B24" r:id="rId11" display="https://www.geeksforgeeks.org/fundamentals-of-algorithms/"/>
-    <hyperlink ref="B26" r:id="rId12" display="https://www.youtube.com/channel/UCYvQTh9aUgPZmVH0wNHFa1A"/>
-    <hyperlink ref="B27" r:id="rId13" display="https://www.youtube.com/user/tusharroy2525"/>
+    <hyperlink ref="B21" r:id="rId9" display="https://www.geeksforgeeks.org/must-do-coding-questions-for-companies-like-amazon-microsoft-adobe/"/>
+    <hyperlink ref="B22" r:id="rId10" display="https://www.geeksforgeeks.org/data-structures/"/>
+    <hyperlink ref="B23" r:id="rId11" display="https://www.geeksforgeeks.org/fundamentals-of-algorithms/"/>
+    <hyperlink ref="B25" r:id="rId12" display="https://www.youtube.com/channel/UCYvQTh9aUgPZmVH0wNHFa1A"/>
+    <hyperlink ref="B26" r:id="rId13" display="https://www.youtube.com/user/tusharroy2525"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1821,542 +1812,542 @@
   </sheetPr>
   <dimension ref="A1:J24"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="6.38"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="15" width="15.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="17"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="15" width="23.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="15" width="31.75"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="6.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="14" width="15.51"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="17"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="14" width="23.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="14" width="31.75"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>66</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>67</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>68</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>69</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>70</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>71</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>72</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>73</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>74</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="17" t="n">
+      <c r="C2" s="16" t="n">
         <v>79</v>
       </c>
-      <c r="D2" s="17" t="n">
+      <c r="D2" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>76</v>
       </c>
-      <c r="F2" s="15" t="n">
+      <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="n">
+      <c r="G2" s="10" t="n">
         <v>173</v>
       </c>
-      <c r="I2" s="11" t="n">
+      <c r="I2" s="10" t="n">
         <v>2</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="11" t="n">
+      <c r="A3" s="10" t="n">
         <v>2</v>
       </c>
-      <c r="B3" s="16" t="s">
+      <c r="B3" s="15" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="17" t="n">
+      <c r="C3" s="16" t="n">
         <v>64</v>
       </c>
-      <c r="D3" s="17" t="n">
+      <c r="D3" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>77</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
         <v>6</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A4" s="11" t="n">
+      <c r="A4" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="B4" s="16" t="s">
+      <c r="B4" s="15" t="s">
         <v>78</v>
       </c>
-      <c r="C4" s="17" t="n">
+      <c r="C4" s="16" t="n">
         <v>50</v>
       </c>
-      <c r="D4" s="17" t="n">
+      <c r="D4" s="16" t="n">
         <v>33</v>
       </c>
-      <c r="E4" s="12" t="s">
+      <c r="E4" s="11" t="s">
         <v>79</v>
       </c>
-      <c r="F4" s="15" t="n">
+      <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
         <v>5</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="11" t="n">
+      <c r="A5" s="10" t="n">
         <v>4</v>
       </c>
-      <c r="B5" s="16" t="s">
+      <c r="B5" s="15" t="s">
         <v>25</v>
       </c>
-      <c r="C5" s="17" t="n">
+      <c r="C5" s="16" t="n">
         <v>49</v>
       </c>
-      <c r="D5" s="17" t="n">
+      <c r="D5" s="16" t="n">
         <v>48</v>
       </c>
-      <c r="E5" s="12" t="s">
+      <c r="E5" s="11" t="s">
         <v>80</v>
       </c>
-      <c r="F5" s="15" t="n">
+      <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="11" t="n">
+      <c r="A6" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="B6" s="16" t="s">
+      <c r="B6" s="15" t="s">
         <v>81</v>
       </c>
-      <c r="C6" s="17" t="n">
+      <c r="C6" s="16" t="n">
         <v>47</v>
       </c>
-      <c r="D6" s="17" t="n">
+      <c r="D6" s="16" t="n">
         <v>24</v>
       </c>
-      <c r="E6" s="12" t="s">
+      <c r="E6" s="11" t="s">
         <v>82</v>
       </c>
-      <c r="F6" s="15" t="n">
+      <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" s="16" t="s">
+      <c r="A7" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15" t="s">
         <v>83</v>
       </c>
-      <c r="C7" s="17" t="n">
+      <c r="C7" s="16" t="n">
         <v>42</v>
       </c>
-      <c r="D7" s="17" t="n">
+      <c r="D7" s="16" t="n">
         <v>32</v>
       </c>
-      <c r="E7" s="12" t="s">
+      <c r="E7" s="11" t="s">
         <v>84</v>
       </c>
-      <c r="F7" s="15" t="n">
+      <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="11" t="n">
+      <c r="A8" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="B8" s="16" t="s">
+      <c r="B8" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="C8" s="17" t="n">
+      <c r="C8" s="16" t="n">
         <v>40</v>
       </c>
-      <c r="D8" s="11" t="n">
+      <c r="D8" s="10" t="n">
         <v>30</v>
       </c>
-      <c r="E8" s="12" t="s">
+      <c r="E8" s="11" t="s">
         <v>85</v>
       </c>
-      <c r="F8" s="15" t="n">
+      <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
         <v>4</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="11" t="n">
+      <c r="A9" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="B9" s="18" t="s">
+      <c r="B9" s="17" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="19" t="n">
+      <c r="C9" s="18" t="n">
         <v>35</v>
       </c>
-      <c r="D9" s="17" t="n">
+      <c r="D9" s="16" t="n">
         <v>35</v>
       </c>
-      <c r="E9" s="12" t="s">
+      <c r="E9" s="11" t="s">
         <v>86</v>
       </c>
-      <c r="F9" s="15" t="n">
+      <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
         <v>3</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="11" t="n">
+      <c r="A10" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="B10" s="18" t="s">
+      <c r="B10" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="C10" s="20" t="n">
+      <c r="C10" s="19" t="n">
         <v>33</v>
       </c>
-      <c r="D10" s="11" t="n">
+      <c r="D10" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="E10" s="12" t="s">
+      <c r="E10" s="11" t="s">
         <v>87</v>
       </c>
-      <c r="F10" s="15" t="n">
+      <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
-      <c r="I10" s="11" t="s">
+      <c r="I10" s="10" t="s">
         <v>88</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="11" t="n">
+      <c r="A11" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B11" s="17" t="s">
         <v>89</v>
       </c>
-      <c r="C11" s="20" t="n">
+      <c r="C11" s="19" t="n">
         <v>23</v>
       </c>
-      <c r="D11" s="11" t="n">
+      <c r="D11" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="E11" s="12" t="s">
+      <c r="E11" s="11" t="s">
         <v>90</v>
       </c>
-      <c r="F11" s="15" t="n">
+      <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="11" t="n">
+      <c r="A12" s="10" t="n">
         <v>11</v>
       </c>
-      <c r="B12" s="18" t="s">
+      <c r="B12" s="17" t="s">
         <v>91</v>
       </c>
-      <c r="C12" s="20" t="n">
+      <c r="C12" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="D12" s="17" t="n">
+      <c r="D12" s="16" t="n">
         <v>17</v>
       </c>
-      <c r="E12" s="12" t="s">
+      <c r="E12" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="F12" s="15" t="n">
+      <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="11" t="n">
+      <c r="A13" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="B13" s="18" t="s">
+      <c r="B13" s="17" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="20" t="n">
+      <c r="C13" s="19" t="n">
         <v>21</v>
       </c>
-      <c r="D13" s="11" t="n">
+      <c r="D13" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E13" s="12" t="s">
+      <c r="E13" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="F13" s="15" t="n">
+      <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
         <v>2</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="11" t="n">
+      <c r="A14" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="B14" s="21" t="s">
+      <c r="B14" s="20" t="s">
         <v>94</v>
       </c>
-      <c r="C14" s="11" t="n">
+      <c r="C14" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="D14" s="11" t="n">
+      <c r="D14" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="E14" s="12" t="s">
+      <c r="E14" s="11" t="s">
         <v>95</v>
       </c>
-      <c r="F14" s="15" t="n">
+      <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="11" t="n">
+      <c r="A15" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="B15" s="21" t="s">
+      <c r="B15" s="20" t="s">
         <v>96</v>
       </c>
-      <c r="C15" s="11" t="n">
+      <c r="C15" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="D15" s="17" t="n">
+      <c r="D15" s="16" t="n">
         <v>18</v>
       </c>
-      <c r="E15" s="12" t="s">
+      <c r="E15" s="11" t="s">
         <v>97</v>
       </c>
-      <c r="F15" s="15" t="n">
+      <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
-      <c r="I15" s="11" t="s">
+      <c r="I15" s="10" t="s">
         <v>98</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A16" s="11" t="n">
+      <c r="A16" s="10" t="n">
         <v>15</v>
       </c>
-      <c r="B16" s="21" t="s">
+      <c r="B16" s="20" t="s">
         <v>99</v>
       </c>
-      <c r="C16" s="11" t="n">
+      <c r="C16" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="D16" s="17" t="n">
+      <c r="D16" s="16" t="n">
         <v>16</v>
       </c>
-      <c r="E16" s="12" t="s">
+      <c r="E16" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="F16" s="15" t="n">
+      <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="11" t="n">
+      <c r="A17" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="B17" s="21" t="s">
+      <c r="B17" s="20" t="s">
         <v>101</v>
       </c>
-      <c r="C17" s="11" t="n">
+      <c r="C17" s="10" t="n">
         <v>14</v>
       </c>
-      <c r="D17" s="17" t="n">
+      <c r="D17" s="16" t="n">
         <v>11</v>
       </c>
-      <c r="E17" s="12" t="s">
+      <c r="E17" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="F17" s="15" t="n">
+      <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="11" t="n">
+      <c r="A18" s="10" t="n">
         <v>17</v>
       </c>
-      <c r="B18" s="21" t="s">
+      <c r="B18" s="20" t="s">
         <v>103</v>
       </c>
-      <c r="C18" s="11" t="n">
+      <c r="C18" s="10" t="n">
         <v>13</v>
       </c>
-      <c r="D18" s="11" t="n">
+      <c r="D18" s="10" t="n">
         <v>16</v>
       </c>
-      <c r="E18" s="12" t="s">
+      <c r="E18" s="11" t="s">
         <v>104</v>
       </c>
-      <c r="F18" s="15" t="n">
+      <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="11" t="n">
+      <c r="A19" s="10" t="n">
         <v>18</v>
       </c>
-      <c r="B19" s="21" t="s">
+      <c r="B19" s="20" t="s">
         <v>105</v>
       </c>
-      <c r="C19" s="11" t="n">
+      <c r="C19" s="10" t="n">
         <v>12</v>
       </c>
-      <c r="D19" s="11" t="n">
+      <c r="D19" s="10" t="n">
         <v>10</v>
       </c>
-      <c r="E19" s="12" t="s">
+      <c r="E19" s="11" t="s">
         <v>106</v>
       </c>
-      <c r="F19" s="15" t="n">
+      <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
         <v>1</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="11" t="n">
+      <c r="A20" s="10" t="n">
         <v>19</v>
       </c>
-      <c r="B20" s="22" t="s">
+      <c r="B20" s="21" t="s">
         <v>107</v>
       </c>
-      <c r="C20" s="11" t="n">
+      <c r="C20" s="10" t="n">
         <v>9</v>
       </c>
-      <c r="D20" s="17" t="n">
+      <c r="D20" s="16" t="n">
         <v>14</v>
       </c>
-      <c r="E20" s="12" t="s">
+      <c r="E20" s="11" t="s">
         <v>108</v>
       </c>
-      <c r="F20" s="15" t="n">
+      <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="11" t="n">
+      <c r="A21" s="10" t="n">
         <v>20</v>
       </c>
-      <c r="B21" s="22" t="s">
+      <c r="B21" s="21" t="s">
         <v>109</v>
       </c>
-      <c r="C21" s="11" t="n">
+      <c r="C21" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="D21" s="11" t="n">
+      <c r="D21" s="10" t="n">
         <v>8</v>
       </c>
-      <c r="E21" s="12" t="s">
+      <c r="E21" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="F21" s="15" t="n">
+      <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A22" s="11" t="n">
+      <c r="A22" s="10" t="n">
         <v>21</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="21" t="s">
         <v>111</v>
       </c>
-      <c r="C22" s="11" t="n">
+      <c r="C22" s="10" t="n">
         <v>7</v>
       </c>
-      <c r="D22" s="11" t="n">
-        <v>6</v>
-      </c>
-      <c r="E22" s="12" t="s">
+      <c r="D22" s="10" t="n">
+        <v>6</v>
+      </c>
+      <c r="E22" s="11" t="s">
         <v>112</v>
       </c>
-      <c r="F22" s="15" t="n">
+      <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="11" t="n">
+      <c r="A23" s="10" t="n">
         <v>22</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="21" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="11" t="n">
+      <c r="C23" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D23" s="11" t="n">
+      <c r="D23" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="E23" s="12" t="s">
+      <c r="E23" s="11" t="s">
         <v>114</v>
       </c>
-      <c r="F23" s="15" t="n">
+      <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
         <v>0</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A24" s="11" t="n">
+      <c r="A24" s="10" t="n">
         <v>23</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="21" t="s">
         <v>115</v>
       </c>
-      <c r="C24" s="11" t="n">
+      <c r="C24" s="10" t="n">
         <v>5</v>
       </c>
-      <c r="D24" s="11" t="n">
+      <c r="D24" s="10" t="n">
         <v>3</v>
       </c>
-      <c r="E24" s="12" t="s">
+      <c r="E24" s="11" t="s">
         <v>116</v>
       </c>
-      <c r="F24" s="15" t="n">
+      <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
         <v>0</v>
       </c>
@@ -2405,564 +2396,564 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="15" width="8.88"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="15" width="47.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="14" width="8.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="14" width="47.38"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11" t="s">
+      <c r="A1" s="10"/>
+      <c r="B1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="11" t="s">
+      <c r="C1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="11" t="s">
+      <c r="D1" s="10" t="s">
         <v>117</v>
       </c>
-      <c r="E1" s="11" t="s">
+      <c r="E1" s="10" t="s">
         <v>118</v>
       </c>
-      <c r="F1" s="11" t="s">
+      <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="G1" s="11" t="s">
+      <c r="G1" s="10" t="s">
         <v>119</v>
       </c>
-      <c r="H1" s="11" t="s">
+      <c r="H1" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="I1" s="11" t="s">
+      <c r="I1" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="J1" s="11" t="s">
+      <c r="J1" s="10" t="s">
         <v>122</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="11" t="n">
+      <c r="A2" s="10" t="n">
         <v>1</v>
       </c>
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>124</v>
       </c>
-      <c r="D2" s="23"/>
-      <c r="E2" s="11" t="s">
+      <c r="D2" s="22"/>
+      <c r="E2" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C3" s="24" t="s">
+      <c r="C3" s="23" t="s">
         <v>126</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="E3" s="10" t="s">
         <v>125</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="24" t="s">
+      <c r="C4" s="23" t="s">
         <v>127</v>
       </c>
-      <c r="E4" s="11" t="s">
+      <c r="E4" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="23" t="s">
         <v>129</v>
       </c>
-      <c r="E5" s="11" t="s">
+      <c r="E5" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="24" t="s">
+      <c r="C6" s="23" t="s">
         <v>131</v>
       </c>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="10" t="s">
         <v>130</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="24" t="s">
+      <c r="C7" s="23" t="s">
         <v>132</v>
       </c>
-      <c r="E7" s="11" t="s">
+      <c r="E7" s="10" t="s">
         <v>128</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C8" s="24" t="s">
+      <c r="C8" s="23" t="s">
         <v>133</v>
       </c>
-      <c r="E8" s="11" t="s">
+      <c r="E8" s="10" t="s">
         <v>134</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B9" s="11" t="s">
+      <c r="B9" s="10" t="s">
         <v>78</v>
       </c>
-      <c r="C9" s="24" t="s">
+      <c r="C9" s="23" t="s">
         <v>135</v>
       </c>
-      <c r="D9" s="23"/>
-      <c r="E9" s="11" t="s">
+      <c r="D9" s="22"/>
+      <c r="E9" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F9" s="11" t="s">
+      <c r="F9" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="24" t="s">
+      <c r="C10" s="23" t="s">
         <v>136</v>
       </c>
-      <c r="D10" s="23"/>
-      <c r="E10" s="11" t="s">
+      <c r="D10" s="22"/>
+      <c r="E10" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F10" s="11" t="s">
+      <c r="F10" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="24" t="s">
+      <c r="C11" s="23" t="s">
         <v>137</v>
       </c>
-      <c r="D11" s="23"/>
-      <c r="E11" s="11" t="s">
+      <c r="D11" s="22"/>
+      <c r="E11" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F11" s="11" t="s">
+      <c r="F11" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="24" t="s">
+      <c r="C12" s="23" t="s">
         <v>138</v>
       </c>
-      <c r="D12" s="23"/>
-      <c r="E12" s="11" t="s">
+      <c r="D12" s="22"/>
+      <c r="E12" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F12" s="11" t="s">
+      <c r="F12" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C13" s="24" t="s">
+      <c r="C13" s="23" t="s">
         <v>139</v>
       </c>
-      <c r="D13" s="23"/>
-      <c r="E13" s="11" t="s">
+      <c r="D13" s="22"/>
+      <c r="E13" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F13" s="11" t="s">
+      <c r="F13" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="24" t="s">
+      <c r="C14" s="23" t="s">
         <v>140</v>
       </c>
-      <c r="D14" s="23"/>
-      <c r="E14" s="11" t="s">
+      <c r="D14" s="22"/>
+      <c r="E14" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F14" s="11" t="s">
+      <c r="F14" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C15" s="24" t="s">
+      <c r="C15" s="23" t="s">
         <v>141</v>
       </c>
-      <c r="D15" s="23"/>
-      <c r="E15" s="11" t="s">
+      <c r="D15" s="22"/>
+      <c r="E15" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F15" s="11" t="s">
+      <c r="F15" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C16" s="24" t="s">
+      <c r="C16" s="23" t="s">
         <v>142</v>
       </c>
-      <c r="D16" s="23"/>
-      <c r="E16" s="11" t="s">
+      <c r="D16" s="22"/>
+      <c r="E16" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F16" s="11" t="s">
+      <c r="F16" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="24" t="s">
+      <c r="C17" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="D17" s="23"/>
-      <c r="E17" s="11" t="s">
+      <c r="D17" s="22"/>
+      <c r="E17" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F17" s="11" t="s">
+      <c r="F17" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="24" t="s">
+      <c r="C18" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="D18" s="23"/>
-      <c r="E18" s="11" t="s">
+      <c r="D18" s="22"/>
+      <c r="E18" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F18" s="11" t="s">
+      <c r="F18" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="24" t="s">
+      <c r="C19" s="23" t="s">
         <v>145</v>
       </c>
-      <c r="D19" s="23"/>
-      <c r="E19" s="11" t="s">
+      <c r="D19" s="22"/>
+      <c r="E19" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F19" s="11" t="s">
+      <c r="F19" s="10" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C20" s="24" t="s">
+      <c r="C20" s="23" t="s">
         <v>146</v>
       </c>
-      <c r="D20" s="23"/>
-      <c r="E20" s="11" t="s">
+      <c r="D20" s="22"/>
+      <c r="E20" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F20" s="11" t="s">
+      <c r="F20" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="24" t="s">
+      <c r="C21" s="23" t="s">
         <v>147</v>
       </c>
-      <c r="D21" s="23"/>
-      <c r="E21" s="11" t="s">
+      <c r="D21" s="22"/>
+      <c r="E21" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F21" s="11" t="s">
+      <c r="F21" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C22" s="24" t="s">
+      <c r="C22" s="23" t="s">
         <v>148</v>
       </c>
-      <c r="D22" s="23"/>
-      <c r="E22" s="11" t="s">
+      <c r="D22" s="22"/>
+      <c r="E22" s="10" t="s">
         <v>128</v>
       </c>
-      <c r="F22" s="11" t="s">
+      <c r="F22" s="10" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C23" s="11" t="s">
+      <c r="C23" s="10" t="s">
         <v>149</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="12" t="s">
+      <c r="C24" s="11" t="s">
         <v>150</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="10" t="s">
         <v>96</v>
       </c>
-      <c r="C25" s="12" t="s">
+      <c r="C25" s="11" t="s">
         <v>151</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C26" s="12" t="s">
+      <c r="C26" s="11" t="s">
         <v>152</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="12" t="s">
+      <c r="C27" s="11" t="s">
         <v>153</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C28" s="12" t="s">
+      <c r="C28" s="11" t="s">
         <v>154</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C29" s="12" t="s">
+      <c r="C29" s="11" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C30" s="12" t="s">
+      <c r="C30" s="11" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C31" s="12" t="s">
+      <c r="C31" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="E31" s="11" t="s">
+      <c r="E31" s="10" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B32" s="11" t="s">
+      <c r="B32" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C32" s="12" t="s">
+      <c r="C32" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C33" s="12" t="s">
+      <c r="C33" s="11" t="s">
         <v>161</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C35" s="12" t="s">
+      <c r="C35" s="11" t="s">
         <v>162</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C36" s="12" t="s">
+      <c r="C36" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C37" s="12" t="s">
+      <c r="C37" s="11" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B38" s="11" t="s">
+      <c r="B38" s="10" t="s">
         <v>101</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C38" s="11" t="s">
         <v>165</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C39" s="12" t="s">
+      <c r="C39" s="11" t="s">
         <v>166</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C40" s="12" t="s">
+      <c r="C40" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C41" s="12" t="s">
+      <c r="C41" s="11" t="s">
         <v>168</v>
       </c>
-      <c r="E41" s="11" t="s">
+      <c r="E41" s="10" t="s">
         <v>169</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C42" s="12" t="s">
+      <c r="C42" s="11" t="s">
         <v>170</v>
       </c>
-      <c r="E42" s="11" t="s">
+      <c r="E42" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C43" s="12" t="s">
+      <c r="C43" s="11" t="s">
         <v>172</v>
       </c>
-      <c r="E43" s="11" t="s">
+      <c r="E43" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C44" s="12" t="s">
+      <c r="C44" s="11" t="s">
         <v>173</v>
       </c>
-      <c r="E44" s="11" t="s">
+      <c r="E44" s="10" t="s">
         <v>171</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B45" s="11" t="s">
+      <c r="B45" s="10" t="s">
         <v>99</v>
       </c>
-      <c r="C45" s="12" t="s">
+      <c r="C45" s="11" t="s">
         <v>174</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C46" s="12" t="s">
+      <c r="C46" s="11" t="s">
         <v>175</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C47" s="12" t="s">
+      <c r="C47" s="11" t="s">
         <v>176</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C48" s="12" t="s">
+      <c r="C48" s="11" t="s">
         <v>177</v>
       </c>
-      <c r="D48" s="11" t="s">
+      <c r="D48" s="10" t="s">
         <v>178</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B49" s="11" t="s">
+      <c r="B49" s="10" t="s">
         <v>111</v>
       </c>
-      <c r="C49" s="12" t="s">
+      <c r="C49" s="11" t="s">
         <v>179</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C50" s="12" t="s">
+      <c r="C50" s="11" t="s">
         <v>180</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B51" s="11" t="s">
+      <c r="B51" s="10" t="s">
         <v>181</v>
       </c>
-      <c r="C51" s="12" t="s">
+      <c r="C51" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="D51" s="11" t="s">
+      <c r="D51" s="10" t="s">
         <v>183</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B52" s="13"/>
-      <c r="C52" s="14" t="s">
+      <c r="B52" s="12"/>
+      <c r="C52" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="D52" s="13"/>
-      <c r="E52" s="13"/>
+      <c r="D52" s="12"/>
+      <c r="E52" s="12"/>
     </row>
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B53" s="13"/>
-      <c r="C53" s="14" t="s">
+      <c r="B53" s="12"/>
+      <c r="C53" s="13" t="s">
         <v>58</v>
       </c>
-      <c r="D53" s="13"/>
-      <c r="E53" s="13"/>
+      <c r="D53" s="12"/>
+      <c r="E53" s="12"/>
     </row>
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B54" s="13"/>
-      <c r="C54" s="14" t="s">
+      <c r="B54" s="12"/>
+      <c r="C54" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="D54" s="13"/>
-      <c r="E54" s="13"/>
+      <c r="D54" s="12"/>
+      <c r="E54" s="12"/>
     </row>
     <row r="56" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B56" s="11" t="s">
+      <c r="B56" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="C56" s="12" t="s">
+      <c r="C56" s="11" t="s">
         <v>184</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C57" s="12" t="s">
+      <c r="C57" s="11" t="s">
         <v>185</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B58" s="11" t="s">
+      <c r="B58" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C58" s="12" t="s">
+      <c r="C58" s="11" t="s">
         <v>186</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C59" s="12" t="s">
+      <c r="C59" s="11" t="s">
         <v>187</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C60" s="12" t="s">
+      <c r="C60" s="11" t="s">
         <v>188</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B61" s="11" t="s">
+      <c r="B61" s="10" t="s">
         <v>91</v>
       </c>
-      <c r="C61" s="11" t="s">
+      <c r="C61" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B62" s="11" t="s">
+      <c r="B62" s="10" t="s">
         <v>115</v>
       </c>
-      <c r="C62" s="11" t="s">
+      <c r="C62" s="10" t="s">
         <v>189</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B63" s="11" t="s">
+      <c r="B63" s="10" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C64" s="12" t="s">
+      <c r="C64" s="11" t="s">
         <v>190</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C65" s="12" t="s">
+      <c r="C65" s="11" t="s">
         <v>191</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C66" s="12" t="s">
+      <c r="C66" s="11" t="s">
         <v>192</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C67" s="25" t="s">
+      <c r="C67" s="24" t="s">
         <v>193</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C68" s="12" t="s">
+      <c r="C68" s="11" t="s">
         <v>194</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B69" s="11" t="s">
+      <c r="B69" s="10" t="s">
         <v>159</v>
       </c>
-      <c r="C69" s="12" t="s">
+      <c r="C69" s="11" t="s">
         <v>195</v>
       </c>
     </row>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
     <sheet name="All Questions" sheetId="1" state="visible" r:id="rId2"/>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="196">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="199">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -134,6 +134,15 @@
   </si>
   <si>
     <t xml:space="preserve">Medium</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/contains-duplicate/description/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/valid-anagram/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/two-sum/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -987,8 +996,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C24" activeCellId="0" sqref="C24"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1390,7 +1399,57 @@
         <v>13.02</v>
       </c>
     </row>
-    <row r="26" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="24" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E24" s="3" t="n">
+        <v>4.2</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E26" s="3" t="n">
+        <v>4.12</v>
+      </c>
+    </row>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1608,6 +1667,9 @@
     <hyperlink ref="C21" r:id="rId20" display="https://leetcode.com/problems/maximum-depth-of-binary-tree/"/>
     <hyperlink ref="C22" r:id="rId21" display="https://leetcode.com/problems/convert-sorted-array-to-binary-search-tree/"/>
     <hyperlink ref="C23" r:id="rId22" display="https://leetcode.com/problems/add-two-numbers"/>
+    <hyperlink ref="C24" r:id="rId23" display="https://leetcode.com/problems/contains-duplicate/description/"/>
+    <hyperlink ref="C25" r:id="rId24" display="https://leetcode.com/problems/valid-anagram/"/>
+    <hyperlink ref="C26" r:id="rId25" display="https://leetcode.com/problems/two-sum/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1626,7 +1688,7 @@
   </sheetPr>
   <dimension ref="A1:G1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
@@ -1634,104 +1696,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1739,7 +1801,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1747,35 +1809,35 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1827,34 +1889,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1871,7 +1933,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -1898,7 +1960,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -1910,7 +1972,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -1919,7 +1981,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -1940,7 +2002,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -1952,7 +2014,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -1961,7 +2023,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -1973,7 +2035,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -1982,7 +2044,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -2003,7 +2065,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -2024,7 +2086,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -2045,14 +2107,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2060,7 +2122,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -2069,7 +2131,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -2081,7 +2143,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -2090,7 +2152,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -2111,7 +2173,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -2123,7 +2185,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -2132,7 +2194,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -2144,7 +2206,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2153,14 +2215,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2168,7 +2230,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2177,7 +2239,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2189,7 +2251,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2198,7 +2260,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2210,7 +2272,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2219,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2231,7 +2293,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2240,7 +2302,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2252,7 +2314,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2261,7 +2323,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2273,7 +2335,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2282,7 +2344,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2294,7 +2356,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2303,7 +2365,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2315,7 +2377,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2324,7 +2386,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>114</v>
+        <v>117</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2336,7 +2398,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2345,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>116</v>
+        <v>119</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2414,25 +2476,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>118</v>
+        <v>121</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>119</v>
+        <v>122</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>120</v>
+        <v>123</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>121</v>
+        <v>124</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2440,74 +2502,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>125</v>
+        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="E6" s="10" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2515,11 +2577,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2527,11 +2589,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2539,11 +2601,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2551,11 +2613,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2563,11 +2625,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2575,11 +2637,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2587,11 +2649,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2599,11 +2661,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2611,11 +2673,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2623,11 +2685,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2635,11 +2697,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>36</v>
@@ -2647,11 +2709,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>36</v>
@@ -2659,11 +2721,11 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>128</v>
+        <v>131</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>36</v>
@@ -2671,187 +2733,187 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="E43" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2859,7 +2921,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2867,7 +2929,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2877,12 +2939,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2890,71 +2952,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>115</v>
+        <v>118</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="200">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -143,6 +143,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/two-sum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/group-anagrams/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -996,8 +999,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A10" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B27" activeCellId="0" sqref="B27"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1448,6 +1451,23 @@
       </c>
       <c r="E26" s="3" t="n">
         <v>4.12</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E27" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1670,6 +1690,7 @@
     <hyperlink ref="C24" r:id="rId23" display="https://leetcode.com/problems/contains-duplicate/description/"/>
     <hyperlink ref="C25" r:id="rId24" display="https://leetcode.com/problems/valid-anagram/"/>
     <hyperlink ref="C26" r:id="rId25" display="https://leetcode.com/problems/two-sum/"/>
+    <hyperlink ref="C27" r:id="rId26" display="https://leetcode.com/problems/group-anagrams/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1696,104 +1717,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1801,7 +1822,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1809,35 +1830,35 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1889,34 +1910,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1933,7 +1954,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -1960,7 +1981,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -1972,7 +1993,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -1981,7 +2002,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -2002,7 +2023,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -2014,7 +2035,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -2023,7 +2044,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -2035,7 +2056,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -2044,7 +2065,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -2065,7 +2086,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -2086,7 +2107,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -2107,14 +2128,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2122,7 +2143,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -2131,7 +2152,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -2143,7 +2164,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -2152,7 +2173,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -2173,7 +2194,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -2185,7 +2206,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -2194,7 +2215,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -2206,7 +2227,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2215,14 +2236,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2230,7 +2251,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2239,7 +2260,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2251,7 +2272,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2260,7 +2281,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2272,7 +2293,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2281,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2293,7 +2314,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2302,7 +2323,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2314,7 +2335,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2323,7 +2344,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2335,7 +2356,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2344,7 +2365,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2356,7 +2377,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2365,7 +2386,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2377,7 +2398,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2386,7 +2407,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2398,7 +2419,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2407,7 +2428,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2476,25 +2497,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2502,74 +2523,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
+        <v>130</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>129</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2577,11 +2598,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2589,11 +2610,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2601,11 +2622,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2613,11 +2634,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2625,11 +2646,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2637,11 +2658,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2649,11 +2670,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2661,11 +2682,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2673,11 +2694,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2685,11 +2706,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2697,11 +2718,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>36</v>
@@ -2709,11 +2730,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>36</v>
@@ -2721,11 +2742,11 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>36</v>
@@ -2733,187 +2754,187 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
+        <v>176</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>175</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>174</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2921,7 +2942,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2929,7 +2950,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2939,12 +2960,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2952,71 +2973,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="200">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="201">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -146,6 +146,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/group-anagrams/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/top-k-frequent-elements/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -1000,7 +1003,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D30" activeCellId="0" sqref="D30"/>
+      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29:B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1468,6 +1471,23 @@
       </c>
       <c r="E27" s="3" t="s">
         <v>7</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="3" t="n">
+        <v>18.4</v>
       </c>
     </row>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1691,6 +1711,7 @@
     <hyperlink ref="C25" r:id="rId24" display="https://leetcode.com/problems/valid-anagram/"/>
     <hyperlink ref="C26" r:id="rId25" display="https://leetcode.com/problems/two-sum/"/>
     <hyperlink ref="C27" r:id="rId26" display="https://leetcode.com/problems/group-anagrams/"/>
+    <hyperlink ref="C28" r:id="rId27" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1710,111 +1731,111 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B29:B30 A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1822,7 +1843,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1830,35 +1851,35 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1896,7 +1917,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B29:B30 A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1910,34 +1931,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1954,7 +1975,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -1981,7 +2002,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -1993,7 +2014,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -2002,7 +2023,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -2023,7 +2044,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -2035,7 +2056,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -2044,7 +2065,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -2056,7 +2077,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -2065,7 +2086,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -2086,7 +2107,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -2107,7 +2128,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -2128,14 +2149,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2143,7 +2164,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -2152,7 +2173,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -2164,7 +2185,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -2173,7 +2194,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -2194,7 +2215,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -2206,7 +2227,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -2215,7 +2236,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -2227,7 +2248,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2236,14 +2257,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2251,7 +2272,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2260,7 +2281,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2272,7 +2293,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2281,7 +2302,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2293,7 +2314,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2302,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2314,7 +2335,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2323,7 +2344,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2335,7 +2356,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2344,7 +2365,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2356,7 +2377,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2365,7 +2386,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2377,7 +2398,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2386,7 +2407,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2398,7 +2419,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2407,7 +2428,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2419,7 +2440,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2428,7 +2449,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2479,7 +2500,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="B29:B30 B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2497,25 +2518,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2523,74 +2544,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
+        <v>131</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>130</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>135</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2598,11 +2619,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2610,11 +2631,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2622,11 +2643,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2634,11 +2655,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2646,11 +2667,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2658,11 +2679,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2670,11 +2691,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2682,11 +2703,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2694,11 +2715,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2706,11 +2727,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2718,11 +2739,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>36</v>
@@ -2730,11 +2751,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>36</v>
@@ -2742,11 +2763,11 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>36</v>
@@ -2754,187 +2775,187 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
+        <v>177</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>176</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2942,7 +2963,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2950,7 +2971,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2960,12 +2981,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2973,71 +2994,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -1002,8 +1002,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A14" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B29" activeCellId="0" sqref="B29:B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1487,9 +1487,10 @@
         <v>36</v>
       </c>
       <c r="E28" s="3" t="n">
-        <v>18.4</v>
-      </c>
-    </row>
+        <v>17.16</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1731,7 +1732,7 @@
   <dimension ref="A1:G1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="F1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A19" activeCellId="1" sqref="B29:B30 A19"/>
+      <selection pane="topLeft" activeCell="A19" activeCellId="0" sqref="A19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1917,7 +1918,7 @@
   <dimension ref="A1:J24"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="C2" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="1" sqref="B29:B30 A1"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -2500,7 +2501,7 @@
   <dimension ref="A1:J69"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B10" activeCellId="1" sqref="B29:B30 B10"/>
+      <selection pane="topLeft" activeCell="B10" activeCellId="0" sqref="B10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="201">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -149,6 +149,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/top-k-frequent-elements/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/valid-palindrome/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -1002,8 +1005,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B21" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1490,7 +1493,23 @@
         <v>17.16</v>
       </c>
     </row>
-    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+    <row r="29" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E29" s="3" t="n">
+        <v>12.46</v>
+      </c>
+    </row>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048385" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
     <row r="1048386" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1713,6 +1732,7 @@
     <hyperlink ref="C26" r:id="rId25" display="https://leetcode.com/problems/two-sum/"/>
     <hyperlink ref="C27" r:id="rId26" display="https://leetcode.com/problems/group-anagrams/"/>
     <hyperlink ref="C28" r:id="rId27" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
+    <hyperlink ref="C29" r:id="rId28" display="https://leetcode.com/problems/valid-palindrome/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1739,104 +1759,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1844,7 +1864,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1852,35 +1872,35 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1932,34 +1952,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1976,7 +1996,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -2003,7 +2023,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -2015,7 +2035,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -2024,7 +2044,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -2045,7 +2065,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -2057,7 +2077,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -2066,7 +2086,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -2078,7 +2098,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -2087,7 +2107,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -2108,7 +2128,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -2129,7 +2149,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -2150,14 +2170,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2165,7 +2185,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -2174,7 +2194,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -2186,7 +2206,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -2195,7 +2215,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -2216,7 +2236,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -2228,7 +2248,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -2237,7 +2257,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -2249,7 +2269,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2258,14 +2278,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2273,7 +2293,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2282,7 +2302,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2294,7 +2314,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2303,7 +2323,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2315,7 +2335,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2324,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2336,7 +2356,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2345,7 +2365,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2357,7 +2377,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2366,7 +2386,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2378,7 +2398,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2387,7 +2407,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2399,7 +2419,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2408,7 +2428,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2420,7 +2440,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2429,7 +2449,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2441,7 +2461,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2450,7 +2470,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2519,25 +2539,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2545,74 +2565,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
+        <v>132</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>131</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
+        <v>137</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>136</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2620,11 +2640,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2632,11 +2652,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2644,11 +2664,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2656,11 +2676,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2668,11 +2688,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2680,11 +2700,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2692,11 +2712,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2704,11 +2724,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2716,11 +2736,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2728,11 +2748,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2740,11 +2760,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>36</v>
@@ -2752,11 +2772,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>36</v>
@@ -2764,11 +2784,11 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>36</v>
@@ -2776,187 +2796,187 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
+        <v>178</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>177</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2964,7 +2984,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2972,7 +2992,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -2982,12 +3002,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2995,71 +3015,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="202">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="203">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -152,6 +152,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/valid-palindrome/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -1005,8 +1008,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A20" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="D33" activeCellId="0" sqref="D33"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1498,7 +1501,7 @@
         <v>28</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>42</v>
@@ -1507,7 +1510,24 @@
         <v>6</v>
       </c>
       <c r="E29" s="3" t="n">
-        <v>12.46</v>
+        <v>10.58</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="14.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="3" t="n">
+        <v>9.24</v>
       </c>
     </row>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1733,6 +1753,7 @@
     <hyperlink ref="C27" r:id="rId26" display="https://leetcode.com/problems/group-anagrams/"/>
     <hyperlink ref="C28" r:id="rId27" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
     <hyperlink ref="C29" r:id="rId28" display="https://leetcode.com/problems/valid-palindrome/"/>
+    <hyperlink ref="C30" r:id="rId29" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1759,104 +1780,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1864,7 +1885,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1872,35 +1893,35 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1952,34 +1973,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -1996,7 +2017,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -2023,7 +2044,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -2035,7 +2056,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -2044,7 +2065,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -2065,7 +2086,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -2077,7 +2098,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -2086,7 +2107,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -2098,7 +2119,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -2107,7 +2128,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -2128,7 +2149,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -2149,7 +2170,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -2170,14 +2191,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2185,7 +2206,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -2194,7 +2215,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -2206,7 +2227,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -2215,7 +2236,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -2236,7 +2257,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -2248,7 +2269,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -2257,7 +2278,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -2269,7 +2290,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2278,14 +2299,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2293,7 +2314,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2302,7 +2323,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2314,7 +2335,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2323,7 +2344,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2335,7 +2356,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2344,7 +2365,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2356,7 +2377,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2365,7 +2386,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2377,7 +2398,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2386,7 +2407,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2398,7 +2419,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2407,7 +2428,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2419,7 +2440,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2428,7 +2449,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2440,7 +2461,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2449,7 +2470,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2461,7 +2482,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2470,7 +2491,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2539,25 +2560,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2565,74 +2586,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
+        <v>133</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>132</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
+        <v>138</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>137</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2640,11 +2661,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2652,11 +2673,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2664,11 +2685,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2676,11 +2697,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2688,11 +2709,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2700,11 +2721,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2712,11 +2733,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2724,11 +2745,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2736,11 +2757,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2748,11 +2769,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2760,11 +2781,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>36</v>
@@ -2772,11 +2793,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>36</v>
@@ -2784,11 +2805,11 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>36</v>
@@ -2796,187 +2817,187 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
+        <v>179</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>178</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -2984,7 +3005,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -2992,7 +3013,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -3002,12 +3023,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3015,71 +3036,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="203">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="204">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -155,6 +155,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/3sum/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -1008,8 +1011,8 @@
   </sheetPr>
   <dimension ref="A1:E1048576"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A12" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E29" activeCellId="0" sqref="E29"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1528,6 +1531,23 @@
       </c>
       <c r="E30" s="3" t="n">
         <v>9.24</v>
+      </c>
+    </row>
+    <row r="31" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E31" s="3" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="1048384" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false"/>
@@ -1754,6 +1774,7 @@
     <hyperlink ref="C28" r:id="rId27" display="https://leetcode.com/problems/top-k-frequent-elements/"/>
     <hyperlink ref="C29" r:id="rId28" display="https://leetcode.com/problems/valid-palindrome/"/>
     <hyperlink ref="C30" r:id="rId29" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/"/>
+    <hyperlink ref="C31" r:id="rId30" display="https://leetcode.com/problems/3sum/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1780,104 +1801,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1885,7 +1906,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1893,35 +1914,35 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1973,34 +1994,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2017,7 +2038,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -2044,7 +2065,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -2056,7 +2077,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -2065,7 +2086,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -2086,7 +2107,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -2098,7 +2119,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -2107,7 +2128,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -2119,7 +2140,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -2128,7 +2149,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -2149,7 +2170,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -2170,7 +2191,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -2191,14 +2212,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2206,7 +2227,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -2215,7 +2236,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -2227,7 +2248,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -2236,7 +2257,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -2257,7 +2278,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -2269,7 +2290,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -2278,7 +2299,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -2290,7 +2311,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2299,14 +2320,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2314,7 +2335,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2323,7 +2344,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2335,7 +2356,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2344,7 +2365,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2356,7 +2377,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2365,7 +2386,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2377,7 +2398,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2386,7 +2407,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2398,7 +2419,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2407,7 +2428,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2419,7 +2440,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2428,7 +2449,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2440,7 +2461,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2449,7 +2470,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2461,7 +2482,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2470,7 +2491,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2482,7 +2503,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2491,7 +2512,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2560,25 +2581,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2586,74 +2607,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
+        <v>134</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>133</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
+        <v>139</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>138</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2661,11 +2682,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2673,11 +2694,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2685,11 +2706,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2697,11 +2718,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2709,11 +2730,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2721,11 +2742,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2733,11 +2754,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2745,11 +2766,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2757,11 +2778,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2769,11 +2790,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2781,11 +2802,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>36</v>
@@ -2793,11 +2814,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>36</v>
@@ -2805,11 +2826,11 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>36</v>
@@ -2817,187 +2838,187 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>179</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -3005,7 +3026,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -3013,7 +3034,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -3023,12 +3044,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3036,71 +3057,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="205">
   <si>
     <t xml:space="preserve">Topic</t>
   </si>
@@ -158,6 +158,9 @@
   </si>
   <si>
     <t xml:space="preserve">https://leetcode.com/problems/3sum/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://leetcode.com/problems/container-with-most-water/</t>
   </si>
   <si>
     <t xml:space="preserve">Overall strategy</t>
@@ -1012,7 +1015,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A23" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E31" activeCellId="0" sqref="E31"/>
+      <selection pane="topLeft" activeCell="C35" activeCellId="0" sqref="C35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.6328125" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -1547,6 +1550,23 @@
         <v>36</v>
       </c>
       <c r="E31" s="3" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" customFormat="false" ht="14.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="E32" s="3" t="s">
         <v>7</v>
       </c>
     </row>
@@ -1775,6 +1795,7 @@
     <hyperlink ref="C29" r:id="rId28" display="https://leetcode.com/problems/valid-palindrome/"/>
     <hyperlink ref="C30" r:id="rId29" display="https://leetcode.com/problems/two-sum-ii-input-array-is-sorted/"/>
     <hyperlink ref="C31" r:id="rId30" display="https://leetcode.com/problems/3sum/"/>
+    <hyperlink ref="C32" r:id="rId31" display="https://leetcode.com/problems/container-with-most-water/"/>
   </hyperlinks>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.747916666666667" right="0.747916666666667" top="0.984027777777778" bottom="0.984027777777778" header="0.511811023622047" footer="0.511811023622047"/>
@@ -1801,104 +1822,104 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="10" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="10" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="10" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="10" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D6" s="10" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="10" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="10" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="10" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="10" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B12" s="11" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B13" s="11" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B14" s="11" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="11" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B16" s="11" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B17" s="11" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="11" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="10" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="12"/>
       <c r="B21" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="C21" s="12"/>
       <c r="D21" s="12"/>
@@ -1906,7 +1927,7 @@
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="12"/>
       <c r="B22" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C22" s="12"/>
       <c r="D22" s="12"/>
@@ -1914,35 +1935,35 @@
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="12"/>
       <c r="B23" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C23" s="12"/>
       <c r="D23" s="12"/>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="10" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="11" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B26" s="11" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G26" s="10" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="10" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B27" s="10" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
     </row>
     <row r="1048576" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
@@ -1994,34 +2015,34 @@
   <sheetData>
     <row r="1" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="10" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B1" s="10" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C1" s="10" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F1" s="10" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2038,7 +2059,7 @@
         <v>49</v>
       </c>
       <c r="E2" s="11" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="F2" s="14" t="n">
         <f aca="false">INT(C2/10)</f>
@@ -2065,7 +2086,7 @@
         <v>42</v>
       </c>
       <c r="E3" s="11" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="F3" s="14" t="n">
         <f aca="false">INT(C3/10)</f>
@@ -2077,7 +2098,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="15" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C4" s="16" t="n">
         <v>50</v>
@@ -2086,7 +2107,7 @@
         <v>33</v>
       </c>
       <c r="E4" s="11" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="F4" s="14" t="n">
         <f aca="false">INT(C4/10)</f>
@@ -2107,7 +2128,7 @@
         <v>48</v>
       </c>
       <c r="E5" s="11" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="F5" s="14" t="n">
         <f aca="false">INT(C5/10)</f>
@@ -2119,7 +2140,7 @@
         <v>5</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="C6" s="16" t="n">
         <v>47</v>
@@ -2128,7 +2149,7 @@
         <v>24</v>
       </c>
       <c r="E6" s="11" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="F6" s="14" t="n">
         <f aca="false">INT(C6/10)</f>
@@ -2140,7 +2161,7 @@
         <v>6</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="C7" s="16" t="n">
         <v>42</v>
@@ -2149,7 +2170,7 @@
         <v>32</v>
       </c>
       <c r="E7" s="11" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="F7" s="14" t="n">
         <f aca="false">INT(C7/10)</f>
@@ -2170,7 +2191,7 @@
         <v>30</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="F8" s="14" t="n">
         <f aca="false">INT(C8/10)</f>
@@ -2191,7 +2212,7 @@
         <v>35</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="F9" s="14" t="n">
         <f aca="false">INT(C9/10)</f>
@@ -2212,14 +2233,14 @@
         <v>11</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="F10" s="14" t="n">
         <f aca="false">INT(C10/10)</f>
         <v>3</v>
       </c>
       <c r="I10" s="10" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2227,7 +2248,7 @@
         <v>10</v>
       </c>
       <c r="B11" s="17" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C11" s="19" t="n">
         <v>23</v>
@@ -2236,7 +2257,7 @@
         <v>19</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="F11" s="14" t="n">
         <f aca="false">INT(C11/10)</f>
@@ -2248,7 +2269,7 @@
         <v>11</v>
       </c>
       <c r="B12" s="17" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C12" s="19" t="n">
         <v>21</v>
@@ -2257,7 +2278,7 @@
         <v>17</v>
       </c>
       <c r="E12" s="11" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="14" t="n">
         <f aca="false">INT(C12/10)</f>
@@ -2278,7 +2299,7 @@
         <v>5</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="F13" s="14" t="n">
         <f aca="false">INT(C13/10)</f>
@@ -2290,7 +2311,7 @@
         <v>13</v>
       </c>
       <c r="B14" s="20" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="C14" s="10" t="n">
         <v>18</v>
@@ -2299,7 +2320,7 @@
         <v>14</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="F14" s="14" t="n">
         <f aca="false">INT(C14/10)</f>
@@ -2311,7 +2332,7 @@
         <v>14</v>
       </c>
       <c r="B15" s="20" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C15" s="10" t="n">
         <v>17</v>
@@ -2320,14 +2341,14 @@
         <v>18</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F15" s="14" t="n">
         <f aca="false">INT(C15/10)</f>
         <v>1</v>
       </c>
       <c r="I15" s="10" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2335,7 +2356,7 @@
         <v>15</v>
       </c>
       <c r="B16" s="20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C16" s="10" t="n">
         <v>14</v>
@@ -2344,7 +2365,7 @@
         <v>16</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="F16" s="14" t="n">
         <f aca="false">INT(C16/10)</f>
@@ -2356,7 +2377,7 @@
         <v>16</v>
       </c>
       <c r="B17" s="20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C17" s="10" t="n">
         <v>14</v>
@@ -2365,7 +2386,7 @@
         <v>11</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="F17" s="14" t="n">
         <f aca="false">INT(C17/10)</f>
@@ -2377,7 +2398,7 @@
         <v>17</v>
       </c>
       <c r="B18" s="20" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C18" s="10" t="n">
         <v>13</v>
@@ -2386,7 +2407,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="F18" s="14" t="n">
         <f aca="false">INT(C18/10)</f>
@@ -2398,7 +2419,7 @@
         <v>18</v>
       </c>
       <c r="B19" s="20" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C19" s="10" t="n">
         <v>12</v>
@@ -2407,7 +2428,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="F19" s="14" t="n">
         <f aca="false">INT(C19/10)</f>
@@ -2419,7 +2440,7 @@
         <v>19</v>
       </c>
       <c r="B20" s="21" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C20" s="10" t="n">
         <v>9</v>
@@ -2428,7 +2449,7 @@
         <v>14</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="F20" s="14" t="n">
         <f aca="false">INT(C20/10)</f>
@@ -2440,7 +2461,7 @@
         <v>20</v>
       </c>
       <c r="B21" s="21" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C21" s="10" t="n">
         <v>8</v>
@@ -2449,7 +2470,7 @@
         <v>8</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="F21" s="14" t="n">
         <f aca="false">INT(C21/10)</f>
@@ -2461,7 +2482,7 @@
         <v>21</v>
       </c>
       <c r="B22" s="21" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C22" s="10" t="n">
         <v>7</v>
@@ -2470,7 +2491,7 @@
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="F22" s="14" t="n">
         <f aca="false">INT(C22/10)</f>
@@ -2482,7 +2503,7 @@
         <v>22</v>
       </c>
       <c r="B23" s="21" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C23" s="10" t="n">
         <v>5</v>
@@ -2491,7 +2512,7 @@
         <v>5</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="F23" s="14" t="n">
         <f aca="false">INT(C23/10)</f>
@@ -2503,7 +2524,7 @@
         <v>23</v>
       </c>
       <c r="B24" s="21" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C24" s="10" t="n">
         <v>5</v>
@@ -2512,7 +2533,7 @@
         <v>3</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="F24" s="14" t="n">
         <f aca="false">INT(C24/10)</f>
@@ -2581,25 +2602,25 @@
         <v>1</v>
       </c>
       <c r="D1" s="10" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="E1" s="10" t="s">
-        <v>126</v>
+        <v>127</v>
       </c>
       <c r="F1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="G1" s="10" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="H1" s="10" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="I1" s="10" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="J1" s="10" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -2607,74 +2628,74 @@
         <v>1</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="C2" s="11" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="D2" s="22"/>
       <c r="E2" s="10" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C3" s="23" t="s">
+        <v>135</v>
+      </c>
+      <c r="E3" s="10" t="s">
         <v>134</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C4" s="23" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E4" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C5" s="23" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="E5" s="10" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C6" s="23" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="10" t="s">
         <v>139</v>
-      </c>
-      <c r="E6" s="10" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C7" s="23" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C8" s="23" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B9" s="10" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C9" s="23" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="D9" s="22"/>
       <c r="E9" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F9" s="10" t="s">
         <v>6</v>
@@ -2682,11 +2703,11 @@
     </row>
     <row r="10" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C10" s="23" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="D10" s="22"/>
       <c r="E10" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F10" s="10" t="s">
         <v>6</v>
@@ -2694,11 +2715,11 @@
     </row>
     <row r="11" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C11" s="23" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="D11" s="22"/>
       <c r="E11" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F11" s="10" t="s">
         <v>6</v>
@@ -2706,11 +2727,11 @@
     </row>
     <row r="12" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C12" s="23" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="D12" s="22"/>
       <c r="E12" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F12" s="10" t="s">
         <v>6</v>
@@ -2718,11 +2739,11 @@
     </row>
     <row r="13" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C13" s="23" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="D13" s="22"/>
       <c r="E13" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F13" s="10" t="s">
         <v>6</v>
@@ -2730,11 +2751,11 @@
     </row>
     <row r="14" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C14" s="23" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="D14" s="22"/>
       <c r="E14" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F14" s="10" t="s">
         <v>6</v>
@@ -2742,11 +2763,11 @@
     </row>
     <row r="15" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C15" s="23" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="D15" s="22"/>
       <c r="E15" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F15" s="10" t="s">
         <v>6</v>
@@ -2754,11 +2775,11 @@
     </row>
     <row r="16" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C16" s="23" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="D16" s="22"/>
       <c r="E16" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F16" s="10" t="s">
         <v>6</v>
@@ -2766,11 +2787,11 @@
     </row>
     <row r="17" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C17" s="23" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="D17" s="22"/>
       <c r="E17" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F17" s="10" t="s">
         <v>6</v>
@@ -2778,11 +2799,11 @@
     </row>
     <row r="18" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C18" s="23" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="D18" s="22"/>
       <c r="E18" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F18" s="10" t="s">
         <v>6</v>
@@ -2790,11 +2811,11 @@
     </row>
     <row r="19" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C19" s="23" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="D19" s="22"/>
       <c r="E19" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F19" s="10" t="s">
         <v>6</v>
@@ -2802,11 +2823,11 @@
     </row>
     <row r="20" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C20" s="23" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="D20" s="22"/>
       <c r="E20" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F20" s="10" t="s">
         <v>36</v>
@@ -2814,11 +2835,11 @@
     </row>
     <row r="21" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C21" s="23" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="D21" s="22"/>
       <c r="E21" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F21" s="10" t="s">
         <v>36</v>
@@ -2826,11 +2847,11 @@
     </row>
     <row r="22" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C22" s="23" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="D22" s="22"/>
       <c r="E22" s="10" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F22" s="10" t="s">
         <v>36</v>
@@ -2838,187 +2859,187 @@
     </row>
     <row r="23" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C23" s="10" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C24" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C26" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C27" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C28" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C29" s="11" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
     </row>
     <row r="30" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C30" s="11" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C31" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E31" s="10" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B32" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
     </row>
     <row r="33" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C33" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C35" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C36" s="11" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C37" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
     </row>
     <row r="38" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B38" s="10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C38" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
     </row>
     <row r="39" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C39" s="11" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
     </row>
     <row r="40" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C40" s="11" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C41" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="E41" s="10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
     </row>
     <row r="42" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C42" s="11" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="E42" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="43" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C43" s="11" t="s">
+        <v>181</v>
+      </c>
+      <c r="E43" s="10" t="s">
         <v>180</v>
-      </c>
-      <c r="E43" s="10" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="44" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C44" s="11" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="E44" s="10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="45" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B45" s="10" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C45" s="11" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
     </row>
     <row r="46" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C46" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C47" s="11" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="48" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C48" s="11" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="D48" s="10" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B49" s="10" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C49" s="11" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C50" s="11" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B51" s="10" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="C51" s="11" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="D51" s="10" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
     </row>
     <row r="52" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B52" s="12"/>
       <c r="C52" s="13" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="D52" s="12"/>
       <c r="E52" s="12"/>
@@ -3026,7 +3047,7 @@
     <row r="53" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B53" s="12"/>
       <c r="C53" s="13" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="D53" s="12"/>
       <c r="E53" s="12"/>
@@ -3034,7 +3055,7 @@
     <row r="54" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B54" s="12"/>
       <c r="C54" s="13" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D54" s="12"/>
       <c r="E54" s="12"/>
@@ -3044,12 +3065,12 @@
         <v>4</v>
       </c>
       <c r="C56" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C57" s="11" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
     </row>
     <row r="58" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -3057,71 +3078,71 @@
         <v>14</v>
       </c>
       <c r="C58" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
     </row>
     <row r="59" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C59" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C60" s="11" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B61" s="10" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C61" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B62" s="10" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C62" s="10" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B63" s="10" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C64" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C65" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
     </row>
     <row r="66" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C66" s="11" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
     </row>
     <row r="67" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C67" s="24" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
     </row>
     <row r="68" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="C68" s="11" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="15.75" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B69" s="10" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="C69" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
     </row>
   </sheetData>

--- a/Leetcode.xlsx
+++ b/Leetcode.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/akritworanithiphong/Codes/leetcode/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B7EF44-735A-174E-8F1F-58AC5927AF14}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE99EBC0-BE4F-144F-A47F-A8B691C1B961}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="All Questions" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="335" uniqueCount="205">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="205">
   <si>
     <t>Topic</t>
   </si>
@@ -1222,7 +1222,7 @@
   <dimension ref="A1:E1048576"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="223" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.6640625" defaultRowHeight="13"/>
@@ -1280,8 +1280,8 @@
       <c r="D3" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>7</v>
+      <c r="E3" s="3">
+        <v>7.06</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="15.75" customHeight="1">
